--- a/Review.xlsx
+++ b/Review.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\GitHub\AR-Education\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="187">
   <si>
     <t>Title</t>
   </si>
@@ -465,13 +463,176 @@
   </si>
   <si>
     <t>Benefit in one Sentence</t>
+  </si>
+  <si>
+    <t>"the simulator is able to replicate difficulties of dissection as seen in the cadaver model"</t>
+  </si>
+  <si>
+    <t>Replication of real-world problems</t>
+  </si>
+  <si>
+    <t>"that simulator training followed by cadaver training can provide optimal integration of simulators into the learn- ing curve"</t>
+  </si>
+  <si>
+    <t>Generic (p   0.008) and specific (p   0.028) skills and
+generic events (p 0.001) were scored better by trainers on
+the simulator than on the cadaver model (Fig. 2). In contrast,
+for trainees, only specific skills were scored better (p   0.038) on the simulator than on the cadaver (Fig. 2).</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>better scored surgical skills by training on an AR-Simulator</t>
+  </si>
+  <si>
+    <t>Reduced Cost</t>
+  </si>
+  <si>
+    <t>Improved learning curve</t>
+  </si>
+  <si>
+    <t>"tests taken by the experimental group in all the learning activities were significantly better than those of the control group"</t>
+  </si>
+  <si>
+    <t>Improved learning results</t>
+  </si>
+  <si>
+    <t>HELLO!</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>"The technology became a magnet and aroused a heightened interest in learning"</t>
+  </si>
+  <si>
+    <t>Increased motivation</t>
+  </si>
+  <si>
+    <t>"increased their attention to learning"</t>
+  </si>
+  <si>
+    <t>increased attention</t>
+  </si>
+  <si>
+    <t>4) integration of a variety of learning skills such as
+listening, reading, comprehension ...</t>
+  </si>
+  <si>
+    <t>5) functionality depended on teachers’ requirements
+and students’ learning capability...</t>
+  </si>
+  <si>
+    <t>... and creativity, and</t>
+  </si>
+  <si>
+    <t>Enhanced creativity</t>
+  </si>
+  <si>
+    <t>Student centered learning</t>
+  </si>
+  <si>
+    <t>TAR has more detailing particularly in the texture of
+models.</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>It highlights
+conditions under which concrete experience can
+be gained faster when both watching and feeling impact
+on learners’ brain in the same pace. It should be
+emphasized that the TAR helps to improve the efficiency
+of design activities from certain learning aspects
+although it could also slow down process when
+certain usability issues arise.</t>
+  </si>
+  <si>
+    <t>In contrast to traditional learning method, the TAR
+system affords opportunities to capitalize on human’s
+developing repertoire of physical actions and spatial
+abilities for direct system input and control.</t>
+  </si>
+  <si>
+    <t>Increased details</t>
+  </si>
+  <si>
+    <t>Improved spatial abilities</t>
+  </si>
+  <si>
+    <t>"simulation environments could support students’ scientific inquiry learning processes, such as interpreting results, and improving knowledge integration"</t>
+  </si>
+  <si>
+    <t>In particular, those students using the AR-simulation system
+demonstrated cohesive inquiry patterns. Accordingly, the
+AR-simulation system might be a sufficiently effective
+environment for conducting collaborative inquiry learning
+activities.</t>
+  </si>
+  <si>
+    <t>Improved collaborative learning</t>
+  </si>
+  <si>
+    <t>Regarding the teaching and
+learning of digital systems, the users confirm, by means of
+high scores, that these concepts are strengthened and improved
+by the use of the ARL (questions 2–6). In this sense, students
+declare they disagree with the idea that theoretical concepts
+should be learned only by studying, without the need for practical
+work. Considering the aspects related to the user graphic
+interface, its ease of use, installation, and interactivity stand
+out dramatically. Besides, students stress how theoretical and
+practical concepts are related, thus allowing quick learning
+(questions 8–13). Fig. 14 shows the average responses of
+students and teachers on ARL.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>The Q2 indicates the AR mode made the self-learning
+process playful. We found that physical interaction with the
+original game apparatus enhanced emotional engagement.</t>
+  </si>
+  <si>
+    <t>In Q3, the subjects also agreed that the AR
+mode induced higher concentration. Physical interaction was
+the main reason, as hands-on stone manipulation was supported
+by 15 subjects. As the Q5 and Q6 scores indicate, we
+could not find significant negative influence in the augmented
+interaction.</t>
+  </si>
+  <si>
+    <t>Superimposed
+information was nicely integrated and did not interfere with
+the learning process.</t>
+  </si>
+  <si>
+    <t>"enhanced intrinsic motivation towards the self- learning process"</t>
+  </si>
+  <si>
+    <t>"interaction cost"</t>
+  </si>
+  <si>
+    <t>Increased attention</t>
+  </si>
+  <si>
+    <t>Easy accessible information</t>
+  </si>
+  <si>
+    <t>As previously mentioned, physical interaction
+induced deeper concentration and higher elaboration. The AR
+mode affected the subject’s attitude, and it resulted in behavior
+change.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +653,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -533,15 +715,35 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,8 +757,39 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,24 +1068,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="57" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -907,7 +1140,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="70">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -926,76 +1159,103 @@
       <c r="F3" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="7">
+        <v>253</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="7">
+        <v>254</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6">
+        <v>525</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>143</v>
@@ -1007,12 +1267,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>129</v>
@@ -1024,18 +1284,18 @@
         <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>143</v>
@@ -1044,15 +1304,15 @@
         <v>144</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>129</v>
@@ -1064,158 +1324,170 @@
         <v>144</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13">
+        <v>894</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14">
+        <v>894</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="112">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="56">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>143</v>
@@ -1226,37 +1498,46 @@
       <c r="F18" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="70">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>143</v>
       </c>
@@ -1264,278 +1545,293 @@
         <v>144</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>139</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="42">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="84">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="42">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="56">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26">
+        <v>113</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="2" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="2" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>37</v>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>39</v>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>145</v>
@@ -1547,15 +1843,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>145</v>
@@ -1567,15 +1863,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>145</v>
@@ -1584,35 +1880,35 @@
         <v>143</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>129</v>
@@ -1624,298 +1920,298 @@
         <v>143</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>144</v>
@@ -1924,15 +2220,15 @@
         <v>145</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>128</v>
@@ -1944,35 +2240,35 @@
         <v>145</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>128</v>
@@ -1984,15 +2280,15 @@
         <v>145</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>128</v>
@@ -2004,18 +2300,18 @@
         <v>145</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>144</v>
@@ -2027,28 +2323,293 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Review.xlsx
+++ b/Review.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\GitHub\AR-Education\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="231">
   <si>
     <t>Title</t>
   </si>
@@ -627,12 +632,161 @@
 mode affected the subject’s attitude, and it resulted in behavior
 change.</t>
   </si>
+  <si>
+    <t>"lead to an increased ability to retain long term memories"</t>
+  </si>
+  <si>
+    <t>improved memory</t>
+  </si>
+  <si>
+    <t>This appears to indicate that certain modes of
+presentation (i.e., AR and IAR) produced better learning and retention of information since the amount of
+information loss between the IR test and the LTR test
+was minimal and not statistically significant.</t>
+  </si>
+  <si>
+    <t>"had higher motivation"</t>
+  </si>
+  <si>
+    <t>"had higher [...] and degree of concentration"</t>
+  </si>
+  <si>
+    <t>The results support the hypothesis, and suggest that Augmented Reality has some potential to be effective in aiding the learning of 3D concepts.</t>
+  </si>
+  <si>
+    <t>development of spatial abilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his supports the notion that AR books can help in learning complex three dimensional concepts </t>
+  </si>
+  <si>
+    <t>developmentof spatial abilities</t>
+  </si>
+  <si>
+    <t>The interactivity afforded by AR books provides great potential for learning and an advantage over traditional books or other learning media. Tangible interaction using tools such as the magnet paddle and augmented nail with labeled poles allow for a learning experience that combines real world objects with virtual content. Together this can contribute to a deeper understanding. Interactions in AR engage learners with the content, and allow for knowledge to be acquired through their own manipulation of content (Dünser, 2008), as supported by constructivist learning theory (Tobias &amp; Duffy, 2009 ).</t>
+  </si>
+  <si>
+    <t>Participants using the AR books appeared much more
+eager at the beginning of each session compared with the
+NAR group.</t>
+  </si>
+  <si>
+    <t>increased motivation</t>
+  </si>
+  <si>
+    <t>Contibution to deeper understanding through interaction with a combination of real world objects and virtual content</t>
+  </si>
+  <si>
+    <t>deeper learning through the combination of real world objects and virtual content</t>
+  </si>
+  <si>
+    <t>The AR-guided group had better learning effectiveness (as evidenced by their posttest scores), and it was found that most visitors believed the AR guide made it easier to digest information than the audio guide due to the extra visual commentary that is provided. This mode not only offers an audio commentary, but also displays visual information dominated by text and images.</t>
+  </si>
+  <si>
+    <t>It facilitates the development of art appreciation by imprinting the knowledge of paintings on visitors’ memories, supporting the coupling between the visitors, the guide system, and the artwork (Klopfer &amp; Squire, 2008) by using AR technology, and helping visitorskeep their memories of the artwork vivid.</t>
+  </si>
+  <si>
+    <t>Overall the visitors using the mobile AR-guide system during painting appreciation activities felt that it was an interesting, innovative, creative, and entertaining guide device;</t>
+  </si>
+  <si>
+    <t>The learning performance of the AR-guided group was thus superior to
+that of the other two groups.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Post-hoc comparisons showed that the time spent focusing on paintings was significantly
+longer for both the AR-guided (mean ¼ 17.3278 min) and audio-guided (mean ¼ 16.114 min) groups than for the nonguided group
+(mean ¼ 4.76 min). The focusing time did not differ significantly between the AR-guided and audio-guided groups.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Analysis of the flow experience revealed that the visitors in the AR-guided group were clearly more ready to enter the state of flow with
+respect to the antecedents of flow, and were more proactive in appreciating the artwork than were those in the other two groups. During the
+activity, those in the audio-guided and AR-guided groups expressed the flow states obviously.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>improved creativity</t>
+  </si>
+  <si>
+    <t>improved attention</t>
+  </si>
+  <si>
+    <t>In addition, the participants appeared to be highly interested in using the system to observe lunar phase, with the mean of Q8 being 4.10. Participants agreed that the system is helpful to them in enhancing their motivation</t>
+  </si>
+  <si>
+    <t>The results of our research support this characterization, as the teachers reported high levels of student engagement with the technology, and also with science. Students’ engagement with the technology was also evident in their responses to the opinion post-survey, in which technology-rich activities were rated higher than those without technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We observed gains in a number of affective items and saw particular gains in student self-efficacy and their understanding of what scientists do. </t>
+  </si>
+  <si>
+    <t>improved self-efficacy</t>
+  </si>
+  <si>
+    <t>Using augmented reality on the field trip allowed teachers to use pedagogical approaches that may otherwise be difficult in an outdoor learning environment. The technology supported independence, as students navigated to the AR trigger locations to explore and learn at their own pace. This freed the teacher to act as facilitator, an affordance of AR that has been hypothesized by other researchers (Roschelle &amp; Pea, 2002). The teachers also highlighted this as one of the greatest benefits to teaching with the mobile devices. The program director shared her thoughts saying Such feedback suggests that AR can provide a powerful pedagogical tool that supports student-centered learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these technologies provide ways of individualizing instruction in a group setting, fostering increased motivation and learning </t>
+  </si>
+  <si>
+    <t>We witnessed significant learning gains on the content survey (T(70,1) ¼  8.53, based on paired t-test). Students’ scores went up by an
+average of 19% from the pre to post survey (Mean_pre ¼ 4.3   1.8, Mean_post ¼ 5.9   1.9, based on 9 total points). The effect size associated
+with these gains was substantial (1.0), indicating that student gains were equivalent to one standard deviation around the mean of the data.</t>
+  </si>
+  <si>
+    <t>Prior to the field trip, two of the teachers had expressed concern that the smartphones might be too engaging; leading students to ignore
+the real environment in favor of the media and capabilities provided by the smartphones. Post-field trip comments indicated the contrary
+was true – teachers noted that the smartphones promoted interaction with the pond and classmates.</t>
+  </si>
+  <si>
+    <t>Teachers commented that the smartphones helped to structure students’ movement through space and guided their interaction with the
+pond and with classmates. The students were able to work independently, at their own pace, with the teacher acting as a facilitator. Teachers
+reported that the activities were more student-driven and less teacher-directed.</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Another feature of the activity was the opportunity for collaborative communication and problem-solving among students that arose
+from the augmented reality experience.</t>
+  </si>
+  <si>
+    <t>Written feedback from the teachers indicated that AR was particularly useful in engaging students.</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>student centered learning</t>
+  </si>
+  <si>
+    <t>independence</t>
+  </si>
+  <si>
+    <t>individualization</t>
+  </si>
+  <si>
+    <t>improved learning curve</t>
+  </si>
+  <si>
+    <t>improved collaborative learning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +828,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="TimesNewRoman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
     </font>
   </fonts>
   <fills count="5">
@@ -743,7 +902,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,27 +918,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1060,7 +1229,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1068,21 +1237,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="57" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="57" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="14"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1107,10 +1278,10 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1140,7 +1311,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="70">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1162,16 +1333,16 @@
       <c r="G3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="15" t="s">
         <v>151</v>
       </c>
       <c r="J3" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1185,7 +1356,7 @@
       <c r="H4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="16">
         <v>253</v>
       </c>
       <c r="J4" t="s">
@@ -1205,7 +1376,7 @@
       <c r="H5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="16">
         <v>254</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -1237,7 +1408,7 @@
       <c r="H6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="14">
         <v>525</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1307,7 +1478,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1329,10 +1500,10 @@
       <c r="G10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="15" t="s">
         <v>158</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1347,17 +1518,17 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="15" t="s">
         <v>158</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1365,10 +1536,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="15" t="s">
         <v>158</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1386,7 +1557,7 @@
       <c r="H13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="14">
         <v>894</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1401,17 +1572,17 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="14">
         <v>894</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="112">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1433,17 +1604,17 @@
       <c r="G15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="15" t="s">
         <v>158</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1451,17 +1622,17 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="15" t="s">
         <v>169</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="56">
+    <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1469,10 +1640,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="14">
         <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1504,24 +1675,24 @@
       <c r="H18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="14">
         <v>56</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="70">
+    <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="14">
         <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1573,14 +1744,14 @@
       <c r="H21" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="15" t="s">
         <v>178</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="42">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1602,61 +1773,61 @@
       <c r="G22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="14">
         <v>8</v>
       </c>
       <c r="J22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="84">
+    <row r="23" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="14">
         <v>8</v>
       </c>
       <c r="J23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="42">
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="14">
         <v>8</v>
       </c>
       <c r="J24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="56">
+    <row r="25" spans="1:11">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="14">
         <v>9</v>
       </c>
       <c r="J25" t="s">
@@ -1673,7 +1844,7 @@
       <c r="H26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="14">
         <v>113</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -1702,36 +1873,43 @@
       <c r="F27" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="14">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="14">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>143</v>
@@ -1740,38 +1918,47 @@
         <v>144</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="14">
+        <v>173</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>140</v>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="14">
+        <v>173</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>143</v>
@@ -1780,15 +1967,15 @@
         <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>128</v>
@@ -1800,235 +1987,244 @@
         <v>144</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" s="14">
+        <v>112</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="14">
+        <v>112</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="14">
+        <v>113</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="14">
+        <v>112</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>135</v>
@@ -2040,566 +2236,964 @@
         <v>143</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" s="14">
+        <v>193</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I45" s="17">
+        <v>193</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="14">
+        <v>194</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="14">
+        <v>194</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="H49" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1040</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="G53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="14">
+        <v>554</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I54" s="14">
+        <v>554</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" s="14">
+        <v>554</v>
+      </c>
+      <c r="J55" t="s">
+        <v>226</v>
+      </c>
+      <c r="K55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="14">
+        <v>554</v>
+      </c>
+      <c r="J56" t="s">
+        <v>226</v>
+      </c>
+      <c r="K56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="H57" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="H58" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="H59" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J59" t="s">
+        <v>226</v>
+      </c>
+      <c r="K59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I60" s="15"/>
+      <c r="J60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="H62" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="J62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="2" t="s">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="2" t="s">
-        <v>59</v>
+      <c r="A65" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="2" t="s">
-        <v>64</v>
+      <c r="A70" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="3" t="s">
-        <v>65</v>
+      <c r="A71" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="2" t="s">
-        <v>66</v>
+      <c r="A72" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>137</v>
       </c>
     </row>

--- a/Review.xlsx
+++ b/Review.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\GitHub\AR-Education\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="287">
   <si>
     <t>Title</t>
   </si>
@@ -562,9 +557,6 @@
   </si>
   <si>
     <t>Increased details</t>
-  </si>
-  <si>
-    <t>Improved spatial abilities</t>
   </si>
   <si>
     <t>"simulation environments could support students’ scientific inquiry learning processes, such as interpreting results, and improving knowledge integration"</t>
@@ -660,9 +652,6 @@
     <t xml:space="preserve">his supports the notion that AR books can help in learning complex three dimensional concepts </t>
   </si>
   <si>
-    <t>developmentof spatial abilities</t>
-  </si>
-  <si>
     <t>The interactivity afforded by AR books provides great potential for learning and an advantage over traditional books or other learning media. Tangible interaction using tools such as the magnet paddle and augmented nail with labeled poles allow for a learning experience that combines real world objects with virtual content. Together this can contribute to a deeper understanding. Interactions in AR engage learners with the content, and allow for knowledge to be acquired through their own manipulation of content (Dünser, 2008), as supported by constructivist learning theory (Tobias &amp; Duffy, 2009 ).</t>
   </si>
   <si>
@@ -677,9 +666,6 @@
     <t>Contibution to deeper understanding through interaction with a combination of real world objects and virtual content</t>
   </si>
   <si>
-    <t>deeper learning through the combination of real world objects and virtual content</t>
-  </si>
-  <si>
     <t>The AR-guided group had better learning effectiveness (as evidenced by their posttest scores), and it was found that most visitors believed the AR guide made it easier to digest information than the audio guide due to the extra visual commentary that is provided. This mode not only offers an audio commentary, but also displays visual information dominated by text and images.</t>
   </si>
   <si>
@@ -780,6 +766,197 @@
   </si>
   <si>
     <t>improved collaborative learning</t>
+  </si>
+  <si>
+    <t>Drinn?</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Anzahl Artikel</t>
+  </si>
+  <si>
+    <t>From the analysis of the nine factors underlying users’ flow experiences, the experimental group showed higher levels of concentration on the task (CT) and distorted sense of time (DT) than the control group, which might have led to the students achieving deep learning (Liu, Cheng, &amp; Huang, 2011).</t>
+  </si>
+  <si>
+    <t>Statistical results also show that the experimental group had a better sense of control (SC) and clearer direct feed- back (CF) than the control group, which can be beneficial for the recall of information, according to Bujak et al.’s (2013) study.</t>
+  </si>
+  <si>
+    <t>Finally, participants in the AR-based learning activity reported the highest levels of intrinsic satisfaction (AE) compared to those who used the web-based application; this may have helped the experimental group to perform the task more easily that the control group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regarding the learning effectiveness of both applications, after conducting a statistical analysis on the pre- and posttest scores, it was found that students who used the AR application performed significantly better on knowledge than those who were taught using the web- based application. Those findings seem to support the outcomes of research studies (Andujar, Mejias, &amp; Marquez, 2011; Chen, Chi, Hung, &amp; Kang, 2011; Kamarainen et al., 2013; Kaufmann &amp; Schmalstieg, 2003; Lin, Duh, Li, Wang, &amp; Tsai, 2013), which showed that AR technology contributed to improve academic achievement compared to traditional teaching methods. </t>
+  </si>
+  <si>
+    <t>The AR-based application enabled students to experiment interactively with electric and magnetic fields as well as to observe the effect of magnetic forces on their circuit. It provided instant and reliable feedback.</t>
+  </si>
+  <si>
+    <t>Therefore, the AR-based application gave students the opportunity to try and observe different options instantly, whereas the web-based application did not offer students any possibility to experiment.</t>
+  </si>
+  <si>
+    <t>The experimental group experienced higher levels of concentration on tasks
+(M ¼ 4.02, SD ¼ 0.60) than the control group (M ¼ 3.49, SD ¼ 0.83) [t ¼ 2.771, df ¼ 58, p-value ¼ 0.008, d ¼ 0.87]. Furthermore, AR-based
+application users had a higher sense of control (M ¼ 3.79, SD ¼ 0.53) than web-based application users (M ¼ 3.42, SD ¼ 0.59) [t ¼  2.505,
+df ¼ 57.923, p-value ¼ 0.015, d ¼ 0.68]. Finally, the experimental group reported a higher distorted sense of time (M ¼ 3.37, SD ¼ 0.92) than the control group (M ¼ 2.85, SD ¼ 0.71) [t ¼  2.392, df ¼ 50.366, p-value ¼ 0.02, d ¼ 0.56] (see Fig. 5).</t>
+  </si>
+  <si>
+    <t>Results indicate
+that the experimental group had higher levels of clear and direct feedback factor (M ¼ 3.64, SD ¼ 0.48) than the control group (M ¼ 3.27,
+SD ¼ 0.64) [U ¼ 303.5, p-value ¼ 0.03, d ¼ 0.58]. Similarly, the experimental group had higher values of autotelic experience (M ¼ 4.20,
+SD ¼ 0.71) than the control group (M¼ 3.63, SD ¼ 0.69) [U ¼ 243.5, p-value ¼ 0.002, d ¼ 0.86] (see Fig. 6).</t>
+  </si>
+  <si>
+    <t>Results showed that students were less bored and more in flow state
+when the AR-based application was used during the Magnet_2 stage.</t>
+  </si>
+  <si>
+    <t>Results showed that there are differences in students’ learning outcomes depending on which of the two learning applications they used.
+Indeed, students using the AR-based application performed significantly higher in the posttest than those that had used the web-based
+application.</t>
+  </si>
+  <si>
+    <t>Fehlt</t>
+  </si>
+  <si>
+    <t>In this study, we investigated the impact of an AR- supported simulation on the effectiveness of face-to-face collaborative learning for Physics. The results demonstrated the facilitation effects of AR technology on collaborative learning effectiveness.</t>
+  </si>
+  <si>
+    <t>The collaborators with the AR-supported simulation perceived higher levels of learning skill development, self- reported learning and learning interest after the discussion compared with those without simulation support</t>
+  </si>
+  <si>
+    <t>The analysis indicated that the participants with the ARsupported
+simulation gave significantly higher ratings in
+perceived skill development than those in the non-ARsupported
+groups.</t>
+  </si>
+  <si>
+    <t>Individual post-test results showed that participants in the
+AR-supported groups got significantly higher scores than
+those in the non-AR-supported groups (See Table II).</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>The learning satisfaction of the experimental group learners was higher than that of the control group learners who received librarian instruction. Particularly, learner satisfaction assessed by questions 1 and 7 differed significantly between the two groups. These two questions asked learners whether using the proposed ARLIS for library instruction was more fun than librarian instruction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein </t>
+  </si>
+  <si>
+    <t>The training of spatial ability based on Graphic Engineering contents and AR technology improves spatial abilities for those who perform them and consequently lower the numbers of students who drop out of the subject.</t>
+  </si>
+  <si>
+    <t>" reached a satisfactory motivation level."</t>
+  </si>
+  <si>
+    <t>"positive performance"</t>
+  </si>
+  <si>
+    <t>Students have been satisfied and motivated by these new methodologies, in all cases.</t>
+  </si>
+  <si>
+    <t>Regarding the second research question, results showed that AR technology can help to improve student’s academic performance.</t>
+  </si>
+  <si>
+    <t>their graphic competences and space skills are increased in shorter learning periods,</t>
+  </si>
+  <si>
+    <t>Test results obtained from learning activities revealed that the experimental group achieved significantly more learning improvement than the control group did.</t>
+  </si>
+  <si>
+    <t>Further, the interview results reveal that, compared to traditional learning methods, the proposed EULER not only increases the motivation of students to learn and improves the effectiveness of learning</t>
+  </si>
+  <si>
+    <t>but it also improves student creativity and the ability to explore and absorb new knowledge and solve problems.</t>
+  </si>
+  <si>
+    <t>"can increase motivation to learn"</t>
+  </si>
+  <si>
+    <t>"can improve listening, speaking and reading ability."</t>
+  </si>
+  <si>
+    <t>"like to use the HELLO to learn after class."</t>
+  </si>
+  <si>
+    <t>The experimental results indicate that using the MDAS as a teaching tool for astronomical observations in an outdoor teaching envi- ronment enables students to achieve better learning achievements and to exhibit excellent skill performance</t>
+  </si>
+  <si>
+    <t>Students using the MDAS were significantly more active and engaged in interactions with the teacher compared to those students using traditional tools.</t>
+  </si>
+  <si>
+    <t>"enhanced the effectiveness of learning about astronomical observation and the performance of astronomical observation skills. In addition, the introduction of augmented reality to construct a human–computer-field experience sub- stantially increased learner motivation and had a stronger effect on the retention of learner interest in astronomical observation compared to traditional teaching scenarios."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Overlay system helped not only to avoid the initial period of high errors and lengthy procedures, but also improved overall accuracy and efficiency after the training session. </t>
+  </si>
+  <si>
+    <t>Therefore, it is likely that this method would decrease the amount of practice required for medical stu- dents to become eligible for clinical procedures, or to master percutaneous needle insertion technique.</t>
+  </si>
+  <si>
+    <t>"Potential tissue damage caused by the needle [see Fig. 7(b)] was lower in the Overlay group for all insertions, and it remained significantly lower when the group performed the freehand insertion."</t>
+  </si>
+  <si>
+    <t>"Success rate [see Fig. 7(c)] was higher in the Overlay group when receiving additional guidance for the first six insertions, and remained higher during the freehand insertions."</t>
+  </si>
+  <si>
+    <t>When trainees relied on their memory and the manual to complete an assembly, they were prone to making errors. When AR was used, the learning curve of trainees significantly improved, and fewer errors were made.</t>
+  </si>
+  <si>
+    <t>The use of an animated AR system as a training tool shortens the learning curve of trainees in cognition-demanded assembl</t>
+  </si>
+  <si>
+    <t>"AR is able to compensate for the mental and cognitive gaps between individual differences of information retrieval capacity and the task difficulty imposed on individuals. Consequently, AR eases information retrieval by integrating the task of searching information and the task of the actual assembly."</t>
+  </si>
+  <si>
+    <t>"AR appears to have an advantage in reduc- ing error assembly when compared with the assembly manual."</t>
+  </si>
+  <si>
+    <t>"average ratings of both frustration level and temporal demand were higher using the manual"</t>
+  </si>
+  <si>
+    <t>"Trainees with AR training could remember or recollect more assembly clues that were memorized in the former training task than those trained in the manual."</t>
+  </si>
+  <si>
+    <t>Simultaneous AR with the integration of human cadaver models can aid in decreasing the leaming curve to leam complex invasive procedures.</t>
+  </si>
+  <si>
+    <t>Overall, the students were quite satisfied with the tools used to learn.</t>
+  </si>
+  <si>
+    <t>According to the data observed on site, we note that students who trained using AR felt quite impressed and motivated by the use of a new technology, of which they had no previous contact as they were not aware of it.</t>
+  </si>
+  <si>
+    <t>The computer tools that allow virtual modeling and the handling of 3D objects ease teaching tasks as any piece or figure is available without needing to obtain physical models that can be quite expensive and take longer to create.</t>
+  </si>
+  <si>
+    <t>The groups that underwent training showed a statistically- significant improvement in spatial ability levels. P-values are around 5% for statistical significance, which indicates that the students have a probability of over 95% of improving their levels of spatial ability when performing the proposed training. Besides this, results show there is no improvement in control group levels.</t>
+  </si>
+  <si>
+    <t>"The retention scores show improved learning with YouMove, as performance is maintained on the retention tests"</t>
+  </si>
+  <si>
+    <t>Overall, we were pleased to see that when comparing pre- test and post-test results, learning increased by more than a factor of 2 (44% vs. 20%) with the YouMove system.</t>
+  </si>
+  <si>
+    <t>improved concentration</t>
+  </si>
+  <si>
+    <t>Higher level of satisfaction</t>
+  </si>
+  <si>
+    <t>deeper learning through the interactivity of real world objects and virtual content (Interactivity)</t>
+  </si>
+  <si>
+    <t>After class learning!</t>
+  </si>
+  <si>
+    <t>Improved memory</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1079,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,6 +1114,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -949,16 +1129,16 @@
     <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1229,7 +1409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1237,11 +1417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1256,7 +1436,7 @@
     <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,8 +1470,11 @@
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1310,8 +1493,11 @@
       <c r="F2" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1345,8 +1531,11 @@
       <c r="K3" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1366,7 +1555,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1383,7 +1572,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1606,11 @@
       <c r="K6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1437,8 +1629,11 @@
       <c r="F7" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1457,8 +1652,11 @@
       <c r="F8" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1477,8 +1675,11 @@
       <c r="F9" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1509,8 +1710,11 @@
       <c r="J10" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1528,7 +1732,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1546,7 +1750,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1564,7 +1768,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1582,7 +1786,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1613,8 +1817,11 @@
       <c r="J15" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1632,7 +1839,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1647,10 +1854,10 @@
         <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1673,7 +1880,7 @@
         <v>142</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I18" s="14">
         <v>56</v>
@@ -1681,8 +1888,11 @@
       <c r="J18" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1690,16 +1900,16 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I19" s="14">
         <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1718,8 +1928,11 @@
       <c r="F20" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1742,16 +1955,19 @@
         <v>139</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1774,7 +1990,7 @@
         <v>140</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" s="14">
         <v>8</v>
@@ -1782,8 +1998,11 @@
       <c r="J22" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1791,16 +2010,16 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I23" s="14">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1808,16 +2027,16 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="14">
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1825,7 +2044,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I25" s="14">
         <v>9</v>
@@ -1834,7 +2053,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1842,7 +2061,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I26" s="14">
         <v>113</v>
@@ -1851,10 +2070,10 @@
         <v>160</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1877,16 +2096,19 @@
         <v>137</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I27" s="14">
         <v>4</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>187</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1894,14 +2116,14 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28" s="14">
         <v>4</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +2146,7 @@
         <v>139</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I29" s="14">
         <v>173</v>
@@ -1932,8 +2154,11 @@
       <c r="J29" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1941,7 +2166,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I30" s="14">
         <v>173</v>
@@ -1950,7 +2175,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -1969,8 +2194,11 @@
       <c r="F31" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1989,8 +2217,11 @@
       <c r="F32" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -2009,8 +2240,11 @@
       <c r="F33" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -2029,8 +2263,11 @@
       <c r="F34" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2049,8 +2286,11 @@
       <c r="F35" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2073,16 +2313,19 @@
         <v>141</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I36" s="14">
         <v>112</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>192</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2091,16 +2334,16 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" s="14">
         <v>112</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2109,19 +2352,19 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I38" s="14">
         <v>113</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2130,16 +2373,16 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I39" s="14">
         <v>112</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2158,8 +2401,11 @@
       <c r="F40" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
@@ -2178,8 +2424,11 @@
       <c r="F41" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -2198,8 +2447,11 @@
       <c r="F42" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -2218,8 +2470,11 @@
       <c r="F43" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
@@ -2242,7 +2497,7 @@
         <v>139</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I44" s="14">
         <v>193</v>
@@ -2250,8 +2505,11 @@
       <c r="J44" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2259,16 +2517,16 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I45" s="17">
         <v>193</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2276,16 +2534,16 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I46" s="14">
         <v>194</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2293,16 +2551,16 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I47" s="14">
         <v>194</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2310,16 +2568,16 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="H48" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2327,16 +2585,16 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="H49" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2344,16 +2602,16 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="H50" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
@@ -2376,7 +2634,7 @@
         <v>139</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I51" s="14">
         <v>1040</v>
@@ -2384,8 +2642,11 @@
       <c r="J51" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
         <v>35</v>
       </c>
@@ -2404,8 +2665,11 @@
       <c r="F52" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -2428,7 +2692,7 @@
         <v>139</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I53" s="14">
         <v>554</v>
@@ -2436,8 +2700,11 @@
       <c r="J53" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2445,16 +2712,16 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I54" s="14">
         <v>554</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2462,19 +2729,19 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I55" s="14">
         <v>554</v>
       </c>
       <c r="J55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2482,19 +2749,19 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I56" s="14">
         <v>554</v>
       </c>
       <c r="J56" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2502,16 +2769,16 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="H57" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2519,16 +2786,16 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="H58" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2536,19 +2803,19 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="H59" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J59" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K59" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2556,14 +2823,14 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="H60" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2571,16 +2838,16 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="H61" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J61" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2588,16 +2855,16 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="H62" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J62" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
@@ -2616,8 +2883,11 @@
       <c r="F63" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
@@ -2636,436 +2906,460 @@
       <c r="F64" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="3" t="s">
+      <c r="G64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I64">
+        <v>11</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I65">
+        <v>11</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66">
+        <v>11</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I67">
+        <v>12</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I68">
+        <v>12</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I69">
+        <v>12</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="H70" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="H71" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="H72" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="H73" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="L75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="L77" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I78">
+        <v>322</v>
+      </c>
+      <c r="J78" t="s">
+        <v>227</v>
+      </c>
+      <c r="L78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I79">
+        <v>322</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I80">
+        <v>322</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="H81" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="H82" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="J82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3" t="s">
-        <v>58</v>
+        <v>140</v>
+      </c>
+      <c r="L83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I84">
+        <v>649</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>140</v>
+      </c>
+      <c r="L85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>144</v>
@@ -3074,15 +3368,18 @@
         <v>145</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="L86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>128</v>
@@ -3094,18 +3391,21 @@
         <v>145</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>142</v>
+      </c>
+      <c r="L87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>144</v>
@@ -3114,55 +3414,62 @@
         <v>145</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="3" t="s">
-        <v>65</v>
+      <c r="H88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I88" s="20"/>
+      <c r="J88" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="H89" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="J90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>128</v>
@@ -3174,15 +3481,18 @@
         <v>145</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="L91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>128</v>
@@ -3194,7 +3504,926 @@
         <v>145</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I92">
+        <v>60</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L92" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I93">
+        <v>60</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="H94" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I94">
+        <v>60</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="H95" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I95">
+        <v>60</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I96">
+        <v>173</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I97">
+        <v>173</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I98">
+        <v>173</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I99">
+        <v>173</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="H102" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L103" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L105" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="H106" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I106"/>
+      <c r="J106" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I107">
+        <v>187</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I108">
+        <v>187</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I109">
+        <v>2035</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I110">
+        <v>2035</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I111">
+        <v>2035</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I112">
+        <v>2035</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L113" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I115">
+        <v>451</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I116">
+        <v>450</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I117">
+        <v>447</v>
+      </c>
+      <c r="J117" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I118">
+        <v>448</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I119">
+        <v>448</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I120">
+        <v>448</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I121">
+        <v>450</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L122" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I123">
+        <v>984</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L124" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L125" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I126"/>
+      <c r="J126" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I127"/>
+      <c r="J127" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I128"/>
+      <c r="J128" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I129"/>
+      <c r="J129" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L130" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I131">
+        <v>318</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L131" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="H132" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I132"/>
+      <c r="J132" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="K139" t="s">
+        <v>231</v>
+      </c>
+      <c r="L139">
+        <f>COUNTIF(L2:L131, "Ja")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150">
+        <f>COUNTIF(G:G, A150)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151">
+        <f>COUNTIF(G:G, A151)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152">
+        <f>COUNTIF(G:G, A152)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153">
+        <f>COUNTIF(G:G, A153)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154">
+        <f>COUNTIF(G:G, A154)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Review.xlsx
+++ b/Review.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="0" yWindow="-435" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gefiltert" sheetId="2" r:id="rId1"/>
+    <sheet name="Konsolidiert" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="286">
   <si>
     <t>Title</t>
   </si>
@@ -493,9 +495,6 @@
   </si>
   <si>
     <t>"tests taken by the experimental group in all the learning activities were significantly better than those of the control group"</t>
-  </si>
-  <si>
-    <t>Improved learning results</t>
   </si>
   <si>
     <t>HELLO!</t>
@@ -1012,7 +1011,7 @@
       <name val="TimesNewRomanPSMT"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1084,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,6 +1122,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1143,6 +1151,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1409,7 +1422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1417,11 +1430,2628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="57" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="14"/>
+    <col min="10" max="11" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="16">
+        <v>253</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="16">
+        <v>254</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="14">
+        <v>525</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="14">
+        <v>894</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="14">
+        <v>894</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="14">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="14">
+        <v>56</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="14">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="14">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="14">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="14">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="14">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="14">
+        <v>113</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="14">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="14">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="14">
+        <v>173</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="14">
+        <v>173</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="14">
+        <v>112</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="14">
+        <v>112</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="14">
+        <v>113</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="14">
+        <v>112</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="14">
+        <v>193</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="17">
+        <v>193</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="14">
+        <v>194</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="14">
+        <v>194</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="H36" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1040</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" s="14">
+        <v>554</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" s="14">
+        <v>554</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="14">
+        <v>554</v>
+      </c>
+      <c r="J40" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="14">
+        <v>554</v>
+      </c>
+      <c r="J41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" t="s">
+        <v>225</v>
+      </c>
+      <c r="K42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="H43" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="H44" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" t="s">
+        <v>222</v>
+      </c>
+      <c r="L44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="H45" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" t="s">
+        <v>226</v>
+      </c>
+      <c r="K45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="H47" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49">
+        <v>11</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I50">
+        <v>11</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="H51" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="H54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="H56" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="H57" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I58">
+        <v>322</v>
+      </c>
+      <c r="J58" t="s">
+        <v>226</v>
+      </c>
+      <c r="K58" t="s">
+        <v>226</v>
+      </c>
+      <c r="M58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59">
+        <v>322</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60">
+        <v>322</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="H62" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I63">
+        <v>649</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="J66" t="s">
+        <v>225</v>
+      </c>
+      <c r="K66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I67">
+        <v>60</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I68">
+        <v>60</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I69">
+        <v>60</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I70">
+        <v>60</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I71">
+        <v>173</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72">
+        <v>173</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I73">
+        <v>173</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I74">
+        <v>173</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I80">
+        <v>187</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I81">
+        <v>187</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I82">
+        <v>2035</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I83">
+        <v>2035</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84">
+        <v>2035</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I85">
+        <v>2035</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I86">
+        <v>451</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I87">
+        <v>450</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I88">
+        <v>447</v>
+      </c>
+      <c r="J88" t="s">
+        <v>183</v>
+      </c>
+      <c r="K88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I89">
+        <v>448</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I90">
+        <v>448</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I91">
+        <v>448</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I92">
+        <v>450</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I93">
+        <v>984</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I94"/>
+      <c r="J94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I98">
+        <v>318</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="H99" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104">
+        <f>COUNTIF(G:G, A104)</f>
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104">
+        <f>COUNTIF(K:K, D104)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105">
+        <f>COUNTIF(G:G, A105)</f>
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>153</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105:E119" si="0">COUNTIF(K:K, D105)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106">
+        <f>COUNTIF(G:G, A106)</f>
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E106">
+        <f>COUNTIF(K:K, D106)</f>
+        <v>3</v>
+      </c>
+      <c r="L106" t="s">
+        <v>230</v>
+      </c>
+      <c r="M106">
+        <f>COUNTIF(M2:M98, "Ja")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107">
+        <f>COUNTIF(G:G, A107)</f>
+        <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107">
+        <f>COUNTIF(K:K, D107)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108">
+        <f>COUNTIF(G:G, A108)</f>
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E108">
+        <f>COUNTIF(K:K, D108)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="D109" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109">
+        <f>COUNTIF(K:K, D109)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="D110" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110">
+        <f>COUNTIF(K:K, D110)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="D111" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E111">
+        <f>COUNTIF(K:K, D111)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="D112" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E112">
+        <f>COUNTIF(K:K, D112)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113" t="s">
+        <v>183</v>
+      </c>
+      <c r="E113">
+        <f>COUNTIF(K:K, D113)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5">
+      <c r="D114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114">
+        <f>COUNTIF(K:K, D114)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="D115" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E115">
+        <f>COUNTIF(K:K, D115)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E116">
+        <f>COUNTIF(K:K, D116)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E117">
+        <f>COUNTIF(K:K, D117)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="D118" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E118">
+        <f>COUNTIF(K:K, D118)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="E122">
+        <f>SUM(E104:E118)</f>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1471,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1494,7 +4124,7 @@
         <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1526,13 +4156,13 @@
         <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>152</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1600,14 +4230,14 @@
       <c r="I6" s="14">
         <v>525</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" t="s">
         <v>156</v>
       </c>
-      <c r="K6" t="s">
-        <v>157</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1630,7 +4260,7 @@
         <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1653,7 +4283,7 @@
         <v>139</v>
       </c>
       <c r="L8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1676,7 +4306,7 @@
         <v>138</v>
       </c>
       <c r="L9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1702,16 +4332,16 @@
         <v>141</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1723,13 +4353,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1741,13 +4371,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1759,13 +4389,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="14">
         <v>894</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1777,13 +4407,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I14" s="14">
         <v>894</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1809,16 +4439,16 @@
         <v>137</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1830,13 +4460,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1848,13 +4478,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17" s="14">
         <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1880,7 +4510,7 @@
         <v>142</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I18" s="14">
         <v>56</v>
@@ -1889,7 +4519,7 @@
         <v>154</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1900,13 +4530,13 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I19" s="14">
         <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1929,7 +4559,7 @@
         <v>141</v>
       </c>
       <c r="L20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1955,16 +4585,16 @@
         <v>139</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>154</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1990,16 +4620,16 @@
         <v>140</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I22" s="14">
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2010,13 +4640,13 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I23" s="14">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2027,13 +4657,13 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I24" s="14">
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2044,13 +4674,13 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I25" s="14">
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2061,16 +4691,16 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I26" s="14">
         <v>113</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2096,16 +4726,16 @@
         <v>137</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I27" s="14">
         <v>4</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2116,7 +4746,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I28" s="14">
         <v>4</v>
@@ -2146,16 +4776,16 @@
         <v>139</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I29" s="14">
         <v>173</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2166,13 +4796,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I30" s="14">
         <v>173</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2195,7 +4825,7 @@
         <v>137</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2218,7 +4848,7 @@
         <v>140</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2241,7 +4871,7 @@
         <v>138</v>
       </c>
       <c r="L33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2264,7 +4894,7 @@
         <v>137</v>
       </c>
       <c r="L34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2287,7 +4917,7 @@
         <v>137</v>
       </c>
       <c r="L35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2313,16 +4943,16 @@
         <v>141</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I36" s="14">
         <v>112</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2334,13 +4964,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I37" s="14">
         <v>112</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2352,16 +4982,16 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="14">
         <v>113</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2373,13 +5003,13 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I39" s="14">
         <v>112</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2402,7 +5032,7 @@
         <v>137</v>
       </c>
       <c r="L40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2425,7 +5055,7 @@
         <v>140</v>
       </c>
       <c r="L41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2448,7 +5078,7 @@
         <v>138</v>
       </c>
       <c r="L42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2471,7 +5101,7 @@
         <v>140</v>
       </c>
       <c r="L43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2497,7 +5127,7 @@
         <v>139</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I44" s="14">
         <v>193</v>
@@ -2506,7 +5136,7 @@
         <v>154</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2517,13 +5147,13 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I45" s="17">
         <v>193</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2534,13 +5164,13 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I46" s="14">
         <v>194</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2551,13 +5181,13 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I47" s="14">
         <v>194</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2568,10 +5198,10 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="H48" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>154</v>
@@ -2585,13 +5215,13 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="H49" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2602,13 +5232,13 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="H50" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="15" t="s">
-        <v>207</v>
-      </c>
       <c r="J50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2634,16 +5264,16 @@
         <v>139</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I51" s="14">
         <v>1040</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2666,7 +5296,7 @@
         <v>137</v>
       </c>
       <c r="L52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2692,16 +5322,16 @@
         <v>139</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I53" s="14">
         <v>554</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2712,13 +5342,13 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I54" s="14">
         <v>554</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2729,16 +5359,16 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I55" s="14">
         <v>554</v>
       </c>
       <c r="J55" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" t="s">
         <v>223</v>
-      </c>
-      <c r="K55" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2749,16 +5379,16 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I56" s="14">
         <v>554</v>
       </c>
       <c r="J56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2769,13 +5399,13 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="H57" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2786,13 +5416,13 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="H58" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2803,16 +5433,16 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="H59" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I59" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I59" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="J59" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" t="s">
         <v>223</v>
-      </c>
-      <c r="K59" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2823,11 +5453,11 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="H60" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2838,13 +5468,13 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="H61" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2855,13 +5485,13 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="H62" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I62" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="I62" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="J62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2884,7 +5514,7 @@
         <v>139</v>
       </c>
       <c r="L63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2910,16 +5540,16 @@
         <v>139</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I64">
         <v>11</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2930,13 +5560,13 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I65">
         <v>11</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2947,13 +5577,13 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I66">
         <v>11</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2964,13 +5594,13 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I67">
         <v>12</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2981,13 +5611,13 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I68">
         <v>12</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2998,13 +5628,13 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I69">
         <v>12</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3015,13 +5645,13 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="H70" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3032,13 +5662,13 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="H71" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3049,13 +5679,13 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="H72" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3066,13 +5696,13 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="H73" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3095,7 +5725,7 @@
         <v>140</v>
       </c>
       <c r="L74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3118,7 +5748,7 @@
         <v>139</v>
       </c>
       <c r="L75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3141,7 +5771,7 @@
         <v>141</v>
       </c>
       <c r="L76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3164,7 +5794,7 @@
         <v>137</v>
       </c>
       <c r="L77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3190,16 +5820,16 @@
         <v>142</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I78">
         <v>322</v>
       </c>
       <c r="J78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3210,13 +5840,13 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I79">
         <v>322</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3227,13 +5857,13 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I80">
         <v>322</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3244,13 +5874,13 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="H81" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3261,13 +5891,13 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="H82" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I82" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="I82" s="19" t="s">
-        <v>247</v>
-      </c>
       <c r="J82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3290,7 +5920,7 @@
         <v>140</v>
       </c>
       <c r="L83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3316,16 +5946,16 @@
         <v>140</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I84">
         <v>649</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3348,7 +5978,7 @@
         <v>140</v>
       </c>
       <c r="L85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3371,7 +6001,7 @@
         <v>137</v>
       </c>
       <c r="L86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3394,7 +6024,7 @@
         <v>142</v>
       </c>
       <c r="L87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3420,14 +6050,14 @@
         <v>142</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3438,13 +6068,13 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I89">
         <v>6</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3455,13 +6085,13 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I90">
         <v>6</v>
       </c>
       <c r="J90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3484,7 +6114,7 @@
         <v>137</v>
       </c>
       <c r="L91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3510,16 +6140,16 @@
         <v>142</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I92">
         <v>60</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3531,13 +6161,13 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I93">
         <v>60</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3548,13 +6178,13 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I94">
         <v>60</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3565,13 +6195,13 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I95">
         <v>60</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -3597,16 +6227,16 @@
         <v>139</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I96">
         <v>173</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -3617,13 +6247,13 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I97">
         <v>173</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -3634,13 +6264,13 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I98">
         <v>173</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -3651,13 +6281,13 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I99">
         <v>173</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -3668,13 +6298,13 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I100">
         <v>5</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -3685,13 +6315,13 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I101">
         <v>5</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -3702,16 +6332,16 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I102">
         <v>5</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -3734,7 +6364,7 @@
         <v>142</v>
       </c>
       <c r="L103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -3757,7 +6387,7 @@
         <v>141</v>
       </c>
       <c r="L104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -3783,14 +6413,14 @@
         <v>139</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I105"/>
       <c r="J105" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -3801,11 +6431,11 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I106"/>
       <c r="J106" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -3816,13 +6446,13 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I107">
         <v>187</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -3833,13 +6463,13 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I108">
         <v>187</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -3865,16 +6495,16 @@
         <v>137</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I109">
         <v>2035</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -3886,13 +6516,13 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I110">
         <v>2035</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -3904,13 +6534,13 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I111">
         <v>2035</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -3922,13 +6552,13 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I112">
         <v>2035</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -3951,7 +6581,7 @@
         <v>138</v>
       </c>
       <c r="L113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -3974,7 +6604,7 @@
         <v>138</v>
       </c>
       <c r="L114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -4000,16 +6630,16 @@
         <v>137</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I115">
         <v>451</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -4021,13 +6651,13 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I116">
         <v>450</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -4039,13 +6669,13 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I117">
         <v>447</v>
       </c>
       <c r="J117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -4057,13 +6687,13 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I118">
         <v>448</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -4075,13 +6705,13 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I119">
         <v>448</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -4093,13 +6723,13 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I120">
         <v>448</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -4111,13 +6741,13 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I121">
         <v>450</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -4140,7 +6770,7 @@
         <v>138</v>
       </c>
       <c r="L122" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -4166,16 +6796,16 @@
         <v>137</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I123">
         <v>984</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L123" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -4198,7 +6828,7 @@
         <v>142</v>
       </c>
       <c r="L124" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -4221,7 +6851,7 @@
         <v>138</v>
       </c>
       <c r="L125" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -4247,14 +6877,14 @@
         <v>142</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I126"/>
       <c r="J126" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -4266,11 +6896,11 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I127"/>
       <c r="J127" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -4282,7 +6912,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I128"/>
       <c r="J128" s="2" t="s">
@@ -4298,11 +6928,11 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I129"/>
       <c r="J129" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -4325,7 +6955,7 @@
         <v>139</v>
       </c>
       <c r="L130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -4351,30 +6981,30 @@
         <v>137</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I131">
         <v>318</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="H132" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I132"/>
       <c r="J132" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="K139" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L139">
         <f>COUNTIF(L2:L131, "Ja")</f>
@@ -4435,4 +7065,107 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Review.xlsx
+++ b/Review.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gefiltert" sheetId="2" r:id="rId1"/>
     <sheet name="Konsolidiert" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gruppierung" sheetId="4" r:id="rId3"/>
+    <sheet name="Ben&lt;-&gt;Dir" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="302">
   <si>
     <t>Title</t>
   </si>
@@ -957,12 +958,60 @@
   <si>
     <t>Improved memory</t>
   </si>
+  <si>
+    <t>State of Mind</t>
+  </si>
+  <si>
+    <t>Teaching Concepts</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Content Understanding</t>
+  </si>
+  <si>
+    <t>Reduced Costs</t>
+  </si>
+  <si>
+    <t>Learning Type</t>
+  </si>
+  <si>
+    <t>logical understanding</t>
+  </si>
+  <si>
+    <t>creative problem solving</t>
+  </si>
+  <si>
+    <t>Interactivity</t>
+  </si>
+  <si>
+    <t>Increased concentration</t>
+  </si>
+  <si>
+    <t>Increased satisfaction</t>
+  </si>
+  <si>
+    <t>Increased creativity</t>
+  </si>
+  <si>
+    <t>Direct cost?</t>
+  </si>
+  <si>
+    <t>Indirect cost?</t>
+  </si>
+  <si>
+    <t>Development of spatial abilities</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,8 +1059,21 @@
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,14 +1098,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF33CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1060,8 +1116,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1083,8 +1225,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,31 +1372,159 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+  <cellStyles count="129">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1422,7 +1800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1430,26 +1808,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="57" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="14"/>
-    <col min="10" max="11" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="57" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="14"/>
+    <col min="11" max="12" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,24 +1849,27 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1507,70 +1888,81 @@
       <c r="F2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="J2" t="s">
-        <v>225</v>
       </c>
       <c r="K2" t="s">
         <v>225</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="16">
+      <c r="J3" s="16">
         <v>253</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
       </c>
       <c r="K3" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <v>254</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1593,25 +1985,28 @@
         <v>140</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="14">
+      <c r="J5" s="14">
         <v>525</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1633,23 +2028,26 @@
       <c r="G6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1657,20 +2055,23 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>297</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1678,20 +2079,23 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1700,19 +2104,22 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="14">
+      <c r="J9" s="14">
         <v>894</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1720,20 +2127,23 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J10" s="14">
         <v>894</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>182</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1755,23 +2165,26 @@
       <c r="G11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1779,20 +2192,23 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1800,20 +2216,23 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="14">
+      <c r="J13" s="14">
         <v>5</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1836,42 +2255,49 @@
         <v>142</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="14">
+      <c r="J14" s="14">
         <v>56</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="14">
+      <c r="J15" s="14">
         <v>5</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1893,23 +2319,26 @@
       <c r="G16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="J16" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1931,101 +2360,120 @@
       <c r="G17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="I17" s="14">
+      <c r="J17" s="14">
         <v>8</v>
-      </c>
-      <c r="J17" t="s">
-        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>159</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="I18" s="14">
+      <c r="J18" s="14">
         <v>8</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>295</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="14">
+      <c r="J19" s="14">
         <v>8</v>
-      </c>
-      <c r="J19" t="s">
-        <v>183</v>
       </c>
       <c r="K19" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="I20" s="14">
+      <c r="J20" s="14">
         <v>9</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="K20" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I21" s="14">
+      <c r="J21" s="14">
         <v>113</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2048,40 +2496,47 @@
         <v>137</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="14">
+      <c r="J22" s="14">
         <v>4</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I23" s="14">
+      <c r="J23" s="14">
         <v>4</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2104,42 +2559,49 @@
         <v>139</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="14">
+      <c r="J24" s="14">
         <v>173</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I25" s="14">
+      <c r="J25" s="14">
         <v>173</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>295</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -2162,22 +2624,25 @@
         <v>141</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I26" s="14">
+      <c r="J26" s="14">
         <v>112</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2185,18 +2650,21 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I27" s="14">
+      <c r="J27" s="14">
         <v>112</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2204,23 +2672,26 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="14">
+      <c r="J28" s="14">
         <v>113</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L28" t="s">
+        <v>294</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M28" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2228,20 +2699,23 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I29" s="14">
+      <c r="J29" s="14">
         <v>112</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="L29" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2264,138 +2738,165 @@
         <v>139</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="14">
+      <c r="J30" s="14">
         <v>193</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="17">
+      <c r="J31" s="17">
         <v>193</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="L31" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I32" s="14">
+      <c r="J32" s="14">
         <v>194</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K32" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>182</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I33" s="14">
+      <c r="J33" s="14">
         <v>194</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K33" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>297</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="J34" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="H35" s="8" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="J35" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="K35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="H36" s="8" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="J36" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="J36" t="s">
-        <v>159</v>
       </c>
       <c r="K36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="L36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2418,22 +2919,25 @@
         <v>139</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I37" s="14">
+      <c r="J37" s="14">
         <v>1040</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="L37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2456,531 +2960,643 @@
         <v>139</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="14">
+      <c r="J38" s="14">
         <v>554</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="L38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="14">
+        <v>139</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="14">
         <v>554</v>
       </c>
-      <c r="J39" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="K39" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" t="s">
+        <v>222</v>
+      </c>
+      <c r="M39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="14">
+        <v>139</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="14">
         <v>554</v>
-      </c>
-      <c r="J40" t="s">
-        <v>222</v>
       </c>
       <c r="K40" t="s">
         <v>222</v>
       </c>
-      <c r="L40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="14">
-        <v>554</v>
-      </c>
-      <c r="J41" t="s">
-        <v>222</v>
+        <v>139</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" t="s">
+        <v>225</v>
       </c>
       <c r="L41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="H42" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="J42" t="s">
-        <v>225</v>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="K42" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>182</v>
+      </c>
+      <c r="L42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="H43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="J43" t="s">
-        <v>208</v>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="K43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>222</v>
+      </c>
+      <c r="M43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="I44" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J44" t="s">
-        <v>222</v>
+      <c r="J44" s="15"/>
+      <c r="K44" t="s">
+        <v>226</v>
       </c>
       <c r="L44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" t="s">
-        <v>226</v>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="K45" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="H46" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="8" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="J46" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="2" t="s">
+    <row r="47" spans="1:14">
+      <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I48">
+        <v>139</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="K48" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>294</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I49">
+        <v>139</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J49">
         <v>11</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="K49" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>296</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I50">
-        <v>11</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>282</v>
+        <v>139</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J50">
+        <v>12</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>225</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51">
+        <v>139</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J51">
         <v>12</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="K51" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>294</v>
+      </c>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I52">
+        <v>139</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J52">
         <v>12</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="K52" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I53">
-        <v>12</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:13">
+        <v>139</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="H54" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I55" s="19" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J55" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="K55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="H56" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>195</v>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="H57" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J57" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="2" t="s">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J57">
+        <v>322</v>
+      </c>
+      <c r="K57" t="s">
+        <v>226</v>
+      </c>
+      <c r="L57" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I58">
+        <v>142</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J58">
         <v>322</v>
       </c>
-      <c r="J58" t="s">
-        <v>226</v>
-      </c>
-      <c r="K58" t="s">
-        <v>226</v>
-      </c>
-      <c r="M58" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="K58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>322</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="K59" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>195</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I60">
-        <v>322</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>142</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="H61" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="K61" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="H62" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="J62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+    <row r="62" spans="1:14">
+      <c r="A62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J62">
+        <v>649</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>137</v>
@@ -2989,136 +3605,138 @@
         <v>140</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I63">
-        <v>649</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J63" s="20"/>
       <c r="K63" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M63" t="s">
+        <v>191</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N63" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>137</v>
-      </c>
+    <row r="64" spans="1:14">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="2" t="s">
-        <v>191</v>
+        <v>142</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M64" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>159</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I65">
+        <v>142</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J65">
         <v>6</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="K65" t="s">
+        <v>225</v>
+      </c>
+      <c r="L65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66">
-        <v>6</v>
-      </c>
-      <c r="J66" t="s">
-        <v>225</v>
-      </c>
-      <c r="K66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="I66" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J66">
+        <v>60</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>60</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M67" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>159</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3127,340 +3745,394 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I68">
+        <v>142</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68">
         <v>60</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="K68" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>225</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I69">
+        <v>142</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J69">
         <v>60</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I70">
-        <v>60</v>
-      </c>
-      <c r="J70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>173</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="L70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I71">
+        <v>139</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J71">
         <v>173</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="K71" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>195</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I72">
+        <v>139</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J72">
         <v>173</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="K72" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>222</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>173</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="K73" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>297</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I74">
-        <v>173</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>207</v>
+        <v>139</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>159</v>
+      </c>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I75">
+        <v>139</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J75">
         <v>5</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="K75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I76">
+        <v>139</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J76">
         <v>5</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I77">
-        <v>5</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="L77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N77" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I78"/>
-      <c r="J78" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J78"/>
       <c r="K78" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>195</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I79"/>
-      <c r="J79" s="2" t="s">
-        <v>195</v>
+        <v>139</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J79">
+        <v>187</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>187</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="K80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I81">
-        <v>187</v>
-      </c>
-      <c r="J81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J81">
+        <v>2035</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="L81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I82">
+        <v>137</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J82">
         <v>2035</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3469,17 +4141,20 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I83">
+        <v>137</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J83">
         <v>2035</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3488,74 +4163,83 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I84">
+        <v>137</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J84">
         <v>2035</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I85">
-        <v>2035</v>
-      </c>
-      <c r="J85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J85">
+        <v>451</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="L85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I86">
-        <v>451</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>225</v>
+        <v>137</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J86">
+        <v>450</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3564,17 +4248,22 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I87">
-        <v>450</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:13">
+        <v>137</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J87">
+        <v>447</v>
+      </c>
+      <c r="K87" t="s">
+        <v>183</v>
+      </c>
+      <c r="L87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3582,20 +4271,21 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="I88">
-        <v>447</v>
-      </c>
-      <c r="J88" t="s">
-        <v>183</v>
-      </c>
-      <c r="K88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="H88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J88">
+        <v>448</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3603,18 +4293,23 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I89">
+      <c r="H89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J89">
         <v>448</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="K89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3622,20 +4317,23 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>448</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="K90" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>296</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3643,46 +4341,67 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="I91">
-        <v>448</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>282</v>
+      <c r="H91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J91">
+        <v>450</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="I92">
-        <v>450</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>285</v>
+      <c r="H92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J92">
+        <v>984</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>225</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>128</v>
@@ -3694,64 +4413,53 @@
         <v>145</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I93">
-        <v>984</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J93"/>
       <c r="K93" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M93" t="s">
+        <v>296</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>138</v>
-      </c>
+    <row r="94" spans="1:14">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I94"/>
-      <c r="J94" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J94"/>
       <c r="K94" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>159</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3760,17 +4468,20 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I95"/>
-      <c r="J95" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J95"/>
       <c r="K95" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>153</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3779,269 +4490,260 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I96"/>
-      <c r="J96" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J96"/>
       <c r="K96" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I97"/>
-      <c r="J97" s="2" t="s">
-        <v>191</v>
+        <v>137</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J97">
+        <v>318</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N97" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="G98" t="s">
         <v>137</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I98">
-        <v>318</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="I98" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J98"/>
       <c r="K98" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M98" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="H99" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I99"/>
-      <c r="J99" s="2" t="s">
+      <c r="L98" s="2"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103">
+        <f>COUNTIF(G:G, A103)</f>
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
         <v>225</v>
       </c>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="E103">
+        <f>COUNTIF(L:L, D103)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B104">
         <f>COUNTIF(G:G, A104)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="E104">
-        <f>COUNTIF(K:K, D104)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <f>COUNTIF(L:L, D104)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B105">
-        <f>COUNTIF(G:G, A105)</f>
-        <v>5</v>
-      </c>
-      <c r="D105" t="s">
-        <v>153</v>
+        <f t="shared" ref="B105:B107" si="0">COUNTIF(G:G, A105)</f>
+        <v>3</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E105">
-        <f t="shared" ref="E105:E119" si="0">COUNTIF(K:K, D105)</f>
+        <f>COUNTIF(L:L, D105)</f>
+        <v>3</v>
+      </c>
+      <c r="M105" t="s">
+        <v>230</v>
+      </c>
+      <c r="N105">
+        <f>COUNTIF(N2:N97, "Ja")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106">
-        <f>COUNTIF(G:G, A106)</f>
+      <c r="D106" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106">
+        <f>COUNTIF(L:L, D106)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107">
+        <f>COUNTIF(L:L, D107)</f>
         <v>3</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E106">
-        <f>COUNTIF(K:K, D106)</f>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="B108">
+        <f>SUM(B103:B107)</f>
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E108">
+        <f>COUNTIF(L:L, D108)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="D109" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109">
+        <f>COUNTIF(L:L, D109)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="D110" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110">
+        <f>COUNTIF(L:L, D110)</f>
         <v>3</v>
       </c>
-      <c r="L106" t="s">
-        <v>230</v>
-      </c>
-      <c r="M106">
-        <f>COUNTIF(M2:M98, "Ja")</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" t="s">
-        <v>141</v>
-      </c>
-      <c r="B107">
-        <f>COUNTIF(G:G, A107)</f>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="D111" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111">
+        <f>COUNTIF(L:L, D111)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="D112" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112">
+        <f>COUNTIF(L:L, D112)</f>
         <v>2</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E107">
-        <f>COUNTIF(K:K, D107)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108">
-        <f>COUNTIF(G:G, A108)</f>
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E108">
-        <f>COUNTIF(K:K, D108)</f>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E113">
+        <f>COUNTIF(L:L, D113)</f>
         <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="D109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E109">
-        <f>COUNTIF(K:K, D109)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="D110" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E110">
-        <f>COUNTIF(K:K, D110)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="D111" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E111">
-        <f>COUNTIF(K:K, D111)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="D112" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E112">
-        <f>COUNTIF(K:K, D112)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5">
-      <c r="D113" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113">
-        <f>COUNTIF(K:K, D113)</f>
-        <v>2</v>
       </c>
     </row>
     <row r="114" spans="4:5">
       <c r="D114" s="2" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="E114">
-        <f>COUNTIF(K:K, D114)</f>
-        <v>3</v>
+        <f>COUNTIF(L:L, D114)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="4:5">
       <c r="D115" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="E115">
-        <f>COUNTIF(K:K, D115)</f>
-        <v>2</v>
+        <f>COUNTIF(L:L, D115)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="4:5">
       <c r="D116" s="2" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="E116">
-        <f>COUNTIF(K:K, D116)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5">
-      <c r="D117" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E117">
-        <f>COUNTIF(K:K, D117)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5">
-      <c r="D118" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E118">
-        <f>COUNTIF(K:K, D118)</f>
+        <f>COUNTIF(L:L, D116)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="4:5">
-      <c r="E122">
-        <f>SUM(E104:E118)</f>
-        <v>68</v>
+    <row r="120" spans="4:5">
+      <c r="E120">
+        <f>SUM(E103:E116)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4049,21 +4751,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="57" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="14"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="14"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7069,103 +7771,799 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" style="21" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,D$1)</f>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,F$1)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,G$1)</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="30">
+        <f t="shared" ref="H3:H26" si="0">SUM(C3:G3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,G$1)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,G$1)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="29">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,D$1)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,G$1)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="29">
+        <f>SUM(C3:C6)</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="26">
+        <f>SUM(D3:D6)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="26">
+        <f>SUM(E3:E6)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
+        <f>SUM(F3:F6)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="26">
+        <f>SUM(G3:G6)</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="29">
+        <f>SUM(C7:G7)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,G$1)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,D$1)</f>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,G$1)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="31">
+        <f>SUM(C9:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <f>SUM(D9:D10)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="27">
+        <f>SUM(E9:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <f>SUM(F9:F10)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="27">
+        <f>SUM(G9:G10)</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="31">
+        <f>SUM(C11:G11)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,G$1)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="22"/>
+      <c r="C16" s="31">
+        <f>SUM(C13:C15)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="27">
+        <f>SUM(D13:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <f>SUM(E13:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
+        <f>SUM(F13:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <f>SUM(G13:G15)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="31">
+        <f>SUM(C16:G16)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,C$1)</f>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,D$1)</f>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,G$1)</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="30">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,G$1)</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="31">
+        <f>SUM(C18:C19)</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="27">
+        <f>SUM(D18:D19)</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="27">
+        <f>SUM(E18:E19)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="27">
+        <f>SUM(F18:F19)</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="27">
+        <f>SUM(G18:G19)</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="31">
+        <f>SUM(C20:G20)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2"/>
+      <c r="C22" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,D$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="31">
+        <f>C22</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="27">
+        <f>D22</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="27">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="31">
+        <f>SUM(C23:G23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,D$1)</f>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="30">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,C$1)</f>
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,G$1)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="36">
+        <f>SUM(C25:C26)</f>
+        <v>3</v>
+      </c>
+      <c r="D27" s="37">
+        <f>SUM(D25:D26)</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="37">
+        <f>SUM(E25:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="37">
+        <f>SUM(F25:F26)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="37">
+        <f>SUM(G25:G26)</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="36">
+        <f>SUM(C27:G27)</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Review.xlsx
+++ b/Review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Gefiltert" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="307">
   <si>
     <t>Title</t>
   </si>
@@ -1005,6 +1005,21 @@
   </si>
   <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Passt?</t>
+  </si>
+  <si>
+    <t>Anzahl Fälle</t>
+  </si>
+  <si>
+    <t>Anzahl passend</t>
+  </si>
+  <si>
+    <t>Anzahl nicht passend</t>
+  </si>
+  <si>
+    <t>Intercoder Reliability</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1218,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1396,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="139">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1461,6 +1486,11 @@
     <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1525,6 +1555,11 @@
     <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1800,7 +1835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1808,11 +1843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102:H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1820,14 +1855,14 @@
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="57" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
-    <col min="11" max="12" width="39.6640625" customWidth="1"/>
+    <col min="6" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="57" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="14"/>
+    <col min="12" max="13" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1850,26 +1885,29 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1891,29 +1929,33 @@
       <c r="G2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="b">
+        <f>EXACT(F2,G2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="K2" t="s">
-        <v>225</v>
       </c>
       <c r="L2" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1921,26 +1963,27 @@
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="16">
+      <c r="K3" s="16">
         <v>253</v>
-      </c>
-      <c r="K3" t="s">
-        <v>153</v>
       </c>
       <c r="L3" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1948,21 +1991,22 @@
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <v>254</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1984,29 +2028,33 @@
       <c r="G5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="b">
+        <f>EXACT(F5,G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K5" s="14">
         <v>525</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2028,26 +2076,30 @@
       <c r="G6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="b">
+        <f>EXACT(F6,G6)</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2055,23 +2107,24 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2079,23 +2132,24 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2103,23 +2157,24 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="14">
+      <c r="K9" s="14">
         <v>894</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2127,23 +2182,24 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="14">
+      <c r="K10" s="14">
         <v>894</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2165,26 +2221,30 @@
       <c r="G11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="b">
+        <f>EXACT(F11,G11)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2192,23 +2252,24 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2216,23 +2277,24 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J13" s="14">
+      <c r="K13" s="14">
         <v>5</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2254,26 +2316,30 @@
       <c r="G14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="6" t="b">
+        <f>EXACT(F14,G14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="14">
+      <c r="K14" s="14">
         <v>56</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="M14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2281,23 +2347,24 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="14">
         <v>5</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2319,26 +2386,30 @@
       <c r="G16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="b">
+        <f>EXACT(F16,G16)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N16" t="s">
+      <c r="M16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2360,26 +2431,30 @@
       <c r="G17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="6" t="b">
+        <f>EXACT(F17,G17)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J17" s="14">
+      <c r="K17" s="14">
         <v>8</v>
-      </c>
-      <c r="K17" t="s">
-        <v>159</v>
       </c>
       <c r="L17" t="s">
         <v>159</v>
       </c>
-      <c r="N17" t="s">
+      <c r="M17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2387,23 +2462,24 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="J18" s="14">
+      <c r="K18" s="14">
         <v>8</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="M18" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2411,23 +2487,24 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="14">
+      <c r="K19" s="14">
         <v>8</v>
-      </c>
-      <c r="K19" t="s">
-        <v>183</v>
       </c>
       <c r="L19" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="M19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2435,20 +2512,21 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="J20" s="14">
+      <c r="K20" s="14">
         <v>9</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2456,24 +2534,25 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="14">
+      <c r="K21" s="14">
         <v>113</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" t="s">
+      <c r="M21" s="2"/>
+      <c r="N21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2495,26 +2574,30 @@
       <c r="G22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="6" t="b">
+        <f>EXACT(F22,G22)</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J22" s="14">
+      <c r="K22" s="14">
         <v>4</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="M22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2522,21 +2605,22 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="14">
+      <c r="K23" s="14">
         <v>4</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2558,26 +2642,30 @@
       <c r="G24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="6" t="b">
+        <f>EXACT(F24,G24)</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="14">
+      <c r="K24" s="14">
         <v>173</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="M24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2585,23 +2673,24 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J25" s="14">
+      <c r="K25" s="14">
         <v>173</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="M25" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -2623,26 +2712,30 @@
       <c r="G26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="6" t="b">
+        <f>EXACT(F26,G26)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J26" s="14">
+      <c r="K26" s="14">
         <v>112</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="M26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2650,21 +2743,22 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J27" s="14">
+      <c r="K27" s="14">
         <v>112</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2672,26 +2766,27 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J28" s="14">
+      <c r="K28" s="14">
         <v>113</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N28" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2699,23 +2794,24 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J29" s="14">
+      <c r="K29" s="14">
         <v>112</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="M29" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2737,26 +2833,30 @@
       <c r="G30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="6" t="b">
+        <f>EXACT(F30,G30)</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="14">
+      <c r="K30" s="14">
         <v>193</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="M30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2764,23 +2864,24 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J31" s="17">
+      <c r="K31" s="17">
         <v>193</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="M31" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2788,23 +2889,24 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="14">
+      <c r="K32" s="14">
         <v>194</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="M32" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2812,23 +2914,24 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J33" s="14">
+      <c r="K33" s="14">
         <v>194</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="M33" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2836,21 +2939,22 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="K34" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2858,21 +2962,22 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="J35" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="K35" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2880,23 +2985,24 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="K36" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="K36" t="s">
-        <v>159</v>
       </c>
       <c r="L36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="M36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2918,26 +3024,30 @@
       <c r="G37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="6" t="b">
+        <f>EXACT(F37,G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J37" s="14">
+      <c r="K37" s="14">
         <v>1040</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="M37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2959,26 +3069,30 @@
       <c r="G38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="6" t="b">
+        <f>EXACT(F38,G38)</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J38" s="14">
+      <c r="K38" s="14">
         <v>554</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="M38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2986,26 +3100,27 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J39" s="14">
+      <c r="K39" s="14">
         <v>554</v>
-      </c>
-      <c r="K39" t="s">
-        <v>222</v>
       </c>
       <c r="L39" t="s">
         <v>222</v>
       </c>
       <c r="M39" t="s">
+        <v>222</v>
+      </c>
+      <c r="N39" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3013,23 +3128,24 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J40" s="14">
+      <c r="K40" s="14">
         <v>554</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>222</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3037,23 +3153,24 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="K41" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="K41" t="s">
-        <v>225</v>
       </c>
       <c r="L41" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="M41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3061,23 +3178,24 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="J42" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="K42" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="K42" t="s">
-        <v>182</v>
       </c>
       <c r="L42" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="M42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3085,23 +3203,24 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="J43" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J43" s="15" t="s">
+      <c r="K43" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>222</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3109,21 +3228,22 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" t="s">
-        <v>226</v>
-      </c>
+      <c r="K44" s="15"/>
       <c r="L44" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="M44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3131,20 +3251,21 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="J45" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="K45" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3152,20 +3273,21 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="J46" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="K46" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -3184,53 +3306,58 @@
       <c r="F47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="H47" s="6" t="b">
+        <f>EXACT(F47,G47)</f>
+        <v>0</v>
+      </c>
       <c r="I47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="M47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="M48" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3238,23 +3365,24 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="M49" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3262,23 +3390,24 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>12</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="M50" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3286,21 +3415,22 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>12</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3308,21 +3438,22 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>12</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3330,21 +3461,22 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="J53" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="K53" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3352,21 +3484,22 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="J54" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="J54" s="19" t="s">
+      <c r="K54" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3374,23 +3507,24 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="J55" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="K55" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="M55" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3398,21 +3532,22 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="J56" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="K56" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="2" t="s">
         <v>43</v>
       </c>
@@ -3431,53 +3566,58 @@
       <c r="F57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="H57" s="6" t="b">
+        <f>EXACT(F57,G57)</f>
+        <v>0</v>
+      </c>
       <c r="I57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>322</v>
-      </c>
-      <c r="K57" t="s">
-        <v>226</v>
       </c>
       <c r="L57" t="s">
         <v>226</v>
       </c>
-      <c r="N57" t="s">
+      <c r="M57" t="s">
+        <v>226</v>
+      </c>
+      <c r="O57" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>322</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="M58" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3485,23 +3625,24 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>322</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="M59" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3509,20 +3650,21 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="J60" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="K60" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3530,20 +3672,21 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="J61" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="K61" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
         <v>45</v>
       </c>
@@ -3562,27 +3705,33 @@
       <c r="F62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="H62" s="6" t="b">
+        <f>EXACT(F62,G62)</f>
+        <v>0</v>
+      </c>
       <c r="I62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>649</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N62" t="s">
+      <c r="M62" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O62" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
@@ -3602,52 +3751,55 @@
         <v>137</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H63" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="H63" s="6" t="b">
+        <f>EXACT(F63,G63)</f>
+        <v>0</v>
+      </c>
       <c r="I63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J63" s="20"/>
-      <c r="K63" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="K63" s="20"/>
       <c r="L63" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N63" t="s">
+      <c r="M63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O63" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>6</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="M64" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3655,23 +3807,24 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>6</v>
-      </c>
-      <c r="K65" t="s">
-        <v>225</v>
       </c>
       <c r="L65" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="M65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
         <v>51</v>
       </c>
@@ -3690,53 +3843,58 @@
       <c r="F66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="H66" s="6" t="b">
+        <f>EXACT(F66,G66)</f>
+        <v>1</v>
+      </c>
       <c r="I66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>60</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N66" t="s">
+      <c r="M66" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O66" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>60</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="M67" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3744,23 +3902,24 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>60</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="M68" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3768,21 +3927,22 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>60</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
@@ -3801,53 +3961,58 @@
       <c r="F70" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="H70" s="6" t="b">
+        <f>EXACT(F70,G70)</f>
+        <v>1</v>
+      </c>
       <c r="I70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>173</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="M70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>173</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="M71" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3855,23 +4020,24 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>173</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="M72" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3879,23 +4045,24 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>173</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="M73" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3903,21 +4070,22 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>5</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3925,21 +4093,22 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>5</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3947,24 +4116,25 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>5</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L76" s="2"/>
-      <c r="M76" t="s">
+      <c r="M76" s="2"/>
+      <c r="N76" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
         <v>55</v>
       </c>
@@ -3983,49 +4153,54 @@
       <c r="F77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="H77" s="6" t="b">
+        <f>EXACT(F77,G77)</f>
+        <v>1</v>
+      </c>
       <c r="I77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J77"/>
-      <c r="K77" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="K77"/>
       <c r="L77" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N77" t="s">
+      <c r="M77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O77" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J78"/>
-      <c r="K78" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="K78"/>
       <c r="L78" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="M78" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4033,21 +4208,22 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>187</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4055,21 +4231,22 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>187</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
         <v>56</v>
       </c>
@@ -4088,51 +4265,56 @@
       <c r="F81" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="H81" s="6" t="b">
+        <f>EXACT(F81,G81)</f>
+        <v>1</v>
+      </c>
       <c r="I81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>2035</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="M81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>2035</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4140,21 +4322,22 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>2035</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4162,21 +4345,22 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>2035</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
         <v>59</v>
       </c>
@@ -4195,51 +4379,56 @@
       <c r="F85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="H85" s="6" t="b">
+        <f>EXACT(F85,G85)</f>
+        <v>0</v>
+      </c>
       <c r="I85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>451</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="M85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O85" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>450</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4247,23 +4436,24 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="J87" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>447</v>
-      </c>
-      <c r="K87" t="s">
-        <v>183</v>
       </c>
       <c r="L87" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="M87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4271,21 +4461,22 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="J88" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>448</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4293,23 +4484,24 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="J89" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>448</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="M89" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4317,23 +4509,24 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="2"/>
+      <c r="I90" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="J90" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>448</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="M90" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4341,23 +4534,24 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="2"/>
+      <c r="I91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="J91" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>450</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="M91" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="2" t="s">
         <v>61</v>
       </c>
@@ -4376,27 +4570,33 @@
       <c r="F92" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="H92" s="6" t="b">
+        <f>EXACT(F92,G92)</f>
+        <v>1</v>
+      </c>
       <c r="I92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>984</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N92" t="s">
+      <c r="M92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O92" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:15">
       <c r="A93" s="2" t="s">
         <v>64</v>
       </c>
@@ -4416,50 +4616,53 @@
         <v>138</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H93" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="H93" s="6" t="b">
+        <f>EXACT(F93,G93)</f>
+        <v>0</v>
+      </c>
       <c r="I93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J93"/>
-      <c r="K93" s="2" t="s">
-        <v>296</v>
-      </c>
+      <c r="K93"/>
       <c r="L93" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="M93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="J94"/>
-      <c r="K94" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="K94"/>
       <c r="L94" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="M94" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4467,21 +4670,22 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="2"/>
+      <c r="I95" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J95"/>
-      <c r="K95" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="K95"/>
       <c r="L95" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="M95" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4489,21 +4693,22 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="2"/>
+      <c r="I96" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J96"/>
-      <c r="K96" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="K96"/>
       <c r="L96" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="M96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="2" t="s">
         <v>66</v>
       </c>
@@ -4522,43 +4727,55 @@
       <c r="F97" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2" t="s">
+      <c r="G97" t="s">
         <v>137</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="H97" s="6" t="b">
+        <f>EXACT(F97,G97)</f>
+        <v>1</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J97" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>318</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N97" t="s">
+      <c r="M97" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O97" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
-      <c r="G98" t="s">
+    <row r="98" spans="1:15">
+      <c r="I98" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J98"/>
-      <c r="K98" s="2" t="s">
+      <c r="K98"/>
+      <c r="L98" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="M98" s="2"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="G102" t="s">
+        <v>303</v>
+      </c>
+      <c r="H102">
+        <f>COUNTA(H2:H101)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -4570,11 +4787,18 @@
         <v>225</v>
       </c>
       <c r="E103">
-        <f>COUNTIF(L:L, D103)</f>
+        <f t="shared" ref="E103:E116" si="0">COUNTIF(M:M, D103)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="G103" t="s">
+        <v>304</v>
+      </c>
+      <c r="H103">
+        <f>COUNTIF(H2:H101,TRUE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>142</v>
       </c>
@@ -4586,66 +4810,80 @@
         <v>153</v>
       </c>
       <c r="E104">
-        <f>COUNTIF(L:L, D104)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="G104" t="s">
+        <v>305</v>
+      </c>
+      <c r="H104">
+        <f>H102-H103</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>140</v>
       </c>
       <c r="B105">
-        <f t="shared" ref="B105:B107" si="0">COUNTIF(G:G, A105)</f>
+        <f t="shared" ref="B105:B107" si="1">COUNTIF(G:G, A105)</f>
         <v>3</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E105">
-        <f>COUNTIF(L:L, D105)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M105" t="s">
+      <c r="G105" t="s">
+        <v>306</v>
+      </c>
+      <c r="H105">
+        <f>H103/H102</f>
+        <v>0.64</v>
+      </c>
+      <c r="N105" t="s">
         <v>230</v>
       </c>
-      <c r="N105">
-        <f>COUNTIF(N2:N97, "Ja")</f>
+      <c r="O105">
+        <f>COUNTIF(O2:O97, "Ja")</f>
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>141</v>
       </c>
       <c r="B106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E106">
-        <f>COUNTIF(L:L, D106)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>139</v>
       </c>
       <c r="B107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E107">
-        <f>COUNTIF(L:L, D107)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:15">
       <c r="B108">
         <f>SUM(B103:B107)</f>
         <v>25</v>
@@ -4654,43 +4892,43 @@
         <v>171</v>
       </c>
       <c r="E108">
-        <f>COUNTIF(L:L, D108)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:15">
       <c r="D109" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E109">
-        <f>COUNTIF(L:L, D109)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:15">
       <c r="D110" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E110">
-        <f>COUNTIF(L:L, D110)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:15">
       <c r="D111" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E111">
-        <f>COUNTIF(L:L, D111)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:15">
       <c r="D112" t="s">
         <v>183</v>
       </c>
       <c r="E112">
-        <f>COUNTIF(L:L, D112)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4699,7 +4937,7 @@
         <v>186</v>
       </c>
       <c r="E113">
-        <f>COUNTIF(L:L, D113)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4708,7 +4946,7 @@
         <v>294</v>
       </c>
       <c r="E114">
-        <f>COUNTIF(L:L, D114)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4717,7 +4955,7 @@
         <v>297</v>
       </c>
       <c r="E115">
-        <f>COUNTIF(L:L, D115)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4726,7 +4964,7 @@
         <v>296</v>
       </c>
       <c r="E116">
-        <f>COUNTIF(L:L, D116)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7773,7 +8011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -7959,23 +8197,23 @@
         <v>159</v>
       </c>
       <c r="C3" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B3,Gefiltert!$I:$I,C$1)</f>
         <v>1</v>
       </c>
       <c r="D3">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B3,Gefiltert!$I:$I,D$1)</f>
         <v>4</v>
       </c>
       <c r="E3">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B3,Gefiltert!$I:$I,E$1)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B3,Gefiltert!$I:$I,F$1)</f>
         <v>2</v>
       </c>
       <c r="G3">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B3,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B3,Gefiltert!$I:$I,G$1)</f>
         <v>7</v>
       </c>
       <c r="H3" s="30">
@@ -7988,23 +8226,23 @@
         <v>182</v>
       </c>
       <c r="C4" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B4,Gefiltert!$I:$I,C$1)</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B4,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B4,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B4,Gefiltert!$I:$I,F$1)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B4,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B4,Gefiltert!$I:$I,G$1)</f>
         <v>2</v>
       </c>
       <c r="H4" s="30">
@@ -8017,23 +8255,23 @@
         <v>295</v>
       </c>
       <c r="C5" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B5,Gefiltert!$I:$I,C$1)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B5,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B5,Gefiltert!$I:$I,E$1)</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B5,Gefiltert!$I:$I,F$1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B5,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B5,Gefiltert!$I:$I,G$1)</f>
         <v>2</v>
       </c>
       <c r="H5" s="30">
@@ -8046,23 +8284,23 @@
         <v>296</v>
       </c>
       <c r="C6" s="29">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B6,Gefiltert!$I:$I,C$1)</f>
         <v>1</v>
       </c>
       <c r="D6" s="26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B6,Gefiltert!$I:$I,D$1)</f>
         <v>2</v>
       </c>
       <c r="E6" s="26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B6,Gefiltert!$I:$I,E$1)</f>
         <v>1</v>
       </c>
       <c r="F6" s="26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B6,Gefiltert!$I:$I,F$1)</f>
         <v>0</v>
       </c>
       <c r="G6" s="26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B6,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B6,Gefiltert!$I:$I,G$1)</f>
         <v>1</v>
       </c>
       <c r="H6" s="29">
@@ -8110,23 +8348,23 @@
         <v>166</v>
       </c>
       <c r="C9" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B9,Gefiltert!$I:$I,C$1)</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B9,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B9,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B9,Gefiltert!$I:$I,F$1)</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B9,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B9,Gefiltert!$I:$I,G$1)</f>
         <v>2</v>
       </c>
       <c r="H9" s="30">
@@ -8139,23 +8377,23 @@
         <v>174</v>
       </c>
       <c r="C10" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B10,Gefiltert!$I:$I,C$1)</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B10,Gefiltert!$I:$I,D$1)</f>
         <v>2</v>
       </c>
       <c r="E10">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B10,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B10,Gefiltert!$I:$I,F$1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B10,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B10,Gefiltert!$I:$I,G$1)</f>
         <v>1</v>
       </c>
       <c r="H10" s="30">
@@ -8202,23 +8440,23 @@
         <v>171</v>
       </c>
       <c r="C13" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B13,Gefiltert!$I:$I,C$1)</f>
         <v>1</v>
       </c>
       <c r="D13">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B13,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B13,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B13,Gefiltert!$I:$I,F$1)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B13,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B13,Gefiltert!$I:$I,G$1)</f>
         <v>0</v>
       </c>
       <c r="H13" s="30">
@@ -8231,23 +8469,23 @@
         <v>183</v>
       </c>
       <c r="C14" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B14,Gefiltert!$I:$I,C$1)</f>
         <v>1</v>
       </c>
       <c r="D14">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B14,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B14,Gefiltert!$I:$I,E$1)</f>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B14,Gefiltert!$I:$I,F$1)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B14,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B14,Gefiltert!$I:$I,G$1)</f>
         <v>0</v>
       </c>
       <c r="H14" s="30">
@@ -8260,23 +8498,23 @@
         <v>294</v>
       </c>
       <c r="C15" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B15,Gefiltert!$I:$I,C$1)</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B15,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B15,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B15,Gefiltert!$I:$I,F$1)</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B15,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B15,Gefiltert!$I:$I,G$1)</f>
         <v>1</v>
       </c>
       <c r="H15" s="30">
@@ -8323,23 +8561,23 @@
         <v>154</v>
       </c>
       <c r="C18" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B18,Gefiltert!$I:$I,C$1)</f>
         <v>6</v>
       </c>
       <c r="D18">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B18,Gefiltert!$I:$I,D$1)</f>
         <v>4</v>
       </c>
       <c r="E18">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B18,Gefiltert!$I:$I,E$1)</f>
         <v>1</v>
       </c>
       <c r="F18">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B18,Gefiltert!$I:$I,F$1)</f>
         <v>1</v>
       </c>
       <c r="G18">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B18,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B18,Gefiltert!$I:$I,G$1)</f>
         <v>6</v>
       </c>
       <c r="H18" s="30">
@@ -8352,23 +8590,23 @@
         <v>297</v>
       </c>
       <c r="C19" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B19,Gefiltert!$I:$I,C$1)</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B19,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B19,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B19,Gefiltert!$I:$I,F$1)</f>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B19,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B19,Gefiltert!$I:$I,G$1)</f>
         <v>2</v>
       </c>
       <c r="H19" s="30">
@@ -8415,23 +8653,23 @@
         <v>153</v>
       </c>
       <c r="C22" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,C$1)</f>
         <v>1</v>
       </c>
       <c r="D22">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,D$1)</f>
         <v>1</v>
       </c>
       <c r="E22">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,F$1)</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B22,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,G$1)</f>
         <v>0</v>
       </c>
       <c r="H22" s="30">
@@ -8478,23 +8716,23 @@
         <v>300</v>
       </c>
       <c r="C25" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B25,Gefiltert!$I:$I,C$1)</f>
         <v>1</v>
       </c>
       <c r="D25">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B25,Gefiltert!$I:$I,D$1)</f>
         <v>2</v>
       </c>
       <c r="E25">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B25,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B25,Gefiltert!$I:$I,F$1)</f>
         <v>1</v>
       </c>
       <c r="G25">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B25,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B25,Gefiltert!$I:$I,G$1)</f>
         <v>0</v>
       </c>
       <c r="H25" s="30">
@@ -8507,23 +8745,23 @@
         <v>285</v>
       </c>
       <c r="C26" s="30">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,C$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B26,Gefiltert!$I:$I,C$1)</f>
         <v>2</v>
       </c>
       <c r="D26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,D$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B26,Gefiltert!$I:$I,D$1)</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,E$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B26,Gefiltert!$I:$I,E$1)</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,F$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B26,Gefiltert!$I:$I,F$1)</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>COUNTIFS(Gefiltert!$L:$L,$B26,Gefiltert!$H:$H,G$1)</f>
+        <f>COUNTIFS(Gefiltert!$M:$M,$B26,Gefiltert!$I:$I,G$1)</f>
         <v>1</v>
       </c>
       <c r="H26" s="30">

--- a/Review.xlsx
+++ b/Review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gefiltert" sheetId="2" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +1085,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1218,7 +1225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1358,8 +1365,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,8 +1434,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="139" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="146">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1491,6 +1506,9 @@
     <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1560,6 +1578,10 @@
     <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Prozent" xfId="139" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1835,7 +1857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1845,9 +1867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102:H105"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4783,6 +4805,10 @@
         <f>COUNTIF(G:G, A103)</f>
         <v>7</v>
       </c>
+      <c r="C103" s="38">
+        <f>B103/$B$108</f>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="D103" t="s">
         <v>225</v>
       </c>
@@ -4806,6 +4832,10 @@
         <f>COUNTIF(G:G, A104)</f>
         <v>5</v>
       </c>
+      <c r="C104" s="38">
+        <f t="shared" ref="C104:C107" si="1">B104/$B$108</f>
+        <v>0.2</v>
+      </c>
       <c r="D104" t="s">
         <v>153</v>
       </c>
@@ -4826,8 +4856,12 @@
         <v>140</v>
       </c>
       <c r="B105">
-        <f t="shared" ref="B105:B107" si="1">COUNTIF(G:G, A105)</f>
+        <f t="shared" ref="B105:B107" si="2">COUNTIF(G:G, A105)</f>
         <v>3</v>
+      </c>
+      <c r="C105" s="38">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>166</v>
@@ -4856,8 +4890,12 @@
         <v>141</v>
       </c>
       <c r="B106">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C106" s="38">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.08</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>159</v>
@@ -4872,8 +4910,12 @@
         <v>139</v>
       </c>
       <c r="B107">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C107" s="38">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0.32</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>182</v>
@@ -8151,10 +8193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8795,6 +8837,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <f>COUNTA(A2:A28)</f>
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <f>COUNTA(B2:B28)</f>
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(C2:C27,"&gt;0")-$A$29</f>
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:G29" si="1">COUNTIF(D2:D27,"&gt;0")-$A$29</f>
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="38">
+        <f>C29/$B$29</f>
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="38">
+        <f t="shared" ref="D30:G30" si="2">D29/$B$29</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E30" s="38">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G30" s="38">
+        <f t="shared" si="2"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Review.xlsx
+++ b/Review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Gefiltert" sheetId="2" r:id="rId1"/>
@@ -1857,7 +1857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1867,9 +1867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
+      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4816,6 +4816,10 @@
         <f t="shared" ref="E103:E116" si="0">COUNTIF(M:M, D103)</f>
         <v>18</v>
       </c>
+      <c r="F103" s="38">
+        <f>E103/$E$120</f>
+        <v>0.26865671641791045</v>
+      </c>
       <c r="G103" t="s">
         <v>304</v>
       </c>
@@ -4843,6 +4847,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="F104" s="38">
+        <f t="shared" ref="F104:F116" si="2">E104/$E$120</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
       <c r="G104" t="s">
         <v>305</v>
       </c>
@@ -4856,7 +4864,7 @@
         <v>140</v>
       </c>
       <c r="B105">
-        <f t="shared" ref="B105:B107" si="2">COUNTIF(G:G, A105)</f>
+        <f t="shared" ref="B105:B107" si="3">COUNTIF(G:G, A105)</f>
         <v>3</v>
       </c>
       <c r="C105" s="38">
@@ -4870,6 +4878,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F105" s="38">
+        <f t="shared" si="2"/>
+        <v>4.4776119402985072E-2</v>
+      </c>
       <c r="G105" t="s">
         <v>306</v>
       </c>
@@ -4890,7 +4902,7 @@
         <v>141</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C106" s="38">
@@ -4904,13 +4916,17 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="F106" s="38">
+        <f t="shared" si="2"/>
+        <v>0.22388059701492538</v>
+      </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>139</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C107" s="38">
@@ -4923,6 +4939,10 @@
       <c r="E107">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="F107" s="38">
+        <f t="shared" si="2"/>
+        <v>4.4776119402985072E-2</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -4937,6 +4957,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="F108" s="38">
+        <f t="shared" si="2"/>
+        <v>1.4925373134328358E-2</v>
+      </c>
     </row>
     <row r="109" spans="1:15">
       <c r="D109" s="2" t="s">
@@ -4946,6 +4970,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="F109" s="38">
+        <f t="shared" si="2"/>
+        <v>5.9701492537313432E-2</v>
+      </c>
     </row>
     <row r="110" spans="1:15">
       <c r="D110" s="2" t="s">
@@ -4955,6 +4983,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F110" s="38">
+        <f t="shared" si="2"/>
+        <v>4.4776119402985072E-2</v>
+      </c>
     </row>
     <row r="111" spans="1:15">
       <c r="D111" s="2" t="s">
@@ -4964,6 +4996,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F111" s="38">
+        <f t="shared" si="2"/>
+        <v>4.4776119402985072E-2</v>
+      </c>
     </row>
     <row r="112" spans="1:15">
       <c r="D112" t="s">
@@ -4973,8 +5009,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="4:5">
+      <c r="F112" s="38">
+        <f t="shared" si="2"/>
+        <v>2.9850746268656716E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6">
       <c r="D113" s="2" t="s">
         <v>186</v>
       </c>
@@ -4982,8 +5022,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="4:5">
+      <c r="F113" s="38">
+        <f t="shared" si="2"/>
+        <v>4.4776119402985072E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6">
       <c r="D114" s="2" t="s">
         <v>294</v>
       </c>
@@ -4991,8 +5035,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="4:5">
+      <c r="F114" s="38">
+        <f t="shared" si="2"/>
+        <v>2.9850746268656716E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6">
       <c r="D115" s="2" t="s">
         <v>297</v>
       </c>
@@ -5000,8 +5048,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="4:5">
+      <c r="F115" s="38">
+        <f t="shared" si="2"/>
+        <v>4.4776119402985072E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6">
       <c r="D116" s="2" t="s">
         <v>296</v>
       </c>
@@ -5009,8 +5061,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="4:5">
+      <c r="F116" s="38">
+        <f t="shared" si="2"/>
+        <v>7.4626865671641784E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6">
       <c r="E120">
         <f>SUM(E103:E116)</f>
         <v>67</v>
@@ -8195,7 +8251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/Review.xlsx
+++ b/Review.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="310">
   <si>
     <t>Title</t>
   </si>
@@ -1020,6 +1020,15 @@
   </si>
   <si>
     <t>Intercoder Reliability</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>"This can provide great savings in cost, as well as in preparation time for whoever is teaching the practical sessions."</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1865,11 +1874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2432,73 +2441,73 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="6" t="b">
-        <f>EXACT(F17,G17)</f>
+      <c r="H18" s="6" t="b">
+        <f>EXACT(F18,G18)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K17" s="14">
-        <v>8</v>
-      </c>
-      <c r="L17" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" t="s">
-        <v>159</v>
-      </c>
-      <c r="O17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
         <v>140</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K18" s="14">
         <v>8</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>295</v>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2514,16 +2523,16 @@
         <v>140</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K19" s="14">
         <v>8</v>
       </c>
-      <c r="L19" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" t="s">
-        <v>183</v>
+      <c r="L19" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2539,13 +2548,16 @@
         <v>140</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K20" s="14">
-        <v>9</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>295</v>
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2560,79 +2572,73 @@
       <c r="I21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="14">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <v>113</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="6" t="b">
-        <f>EXACT(F22,G22)</f>
+      <c r="H23" s="6" t="b">
+        <f>EXACT(F23,G23)</f>
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" s="14">
-        <v>4</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>187</v>
+      <c r="J23" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="K23" s="14">
         <v>4</v>
@@ -2640,137 +2646,137 @@
       <c r="L23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="14">
+        <v>4</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="6" t="b">
-        <f>EXACT(F24,G24)</f>
+      <c r="H25" s="6" t="b">
+        <f>EXACT(F25,G25)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K24" s="14">
-        <v>173</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K25" s="14">
         <v>173</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="14">
+        <v>173</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="6" t="b">
-        <f>EXACT(F26,G26)</f>
+      <c r="H27" s="6" t="b">
+        <f>EXACT(F27,G27)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" s="14">
-        <v>112</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>192</v>
+      <c r="J27" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="K27" s="14">
         <v>112</v>
@@ -2778,7 +2784,12 @@
       <c r="L27" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2"/>
@@ -2793,20 +2804,15 @@
         <v>141</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K28" s="14">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="N28" t="s">
-        <v>196</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2"/>
@@ -2821,86 +2827,89 @@
         <v>141</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="14">
+        <v>113</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="14">
         <v>112</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="6" t="b">
-        <f>EXACT(F30,G30)</f>
+      <c r="H31" s="6" t="b">
+        <f>EXACT(F31,G31)</f>
         <v>1</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K30" s="14">
-        <v>193</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K31" s="17">
+        <v>197</v>
+      </c>
+      <c r="K31" s="14">
         <v>193</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>186</v>
+        <v>154</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2916,16 +2925,16 @@
         <v>139</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K32" s="14">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="K32" s="17">
+        <v>193</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2947,10 +2956,10 @@
         <v>194</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2965,16 +2974,18 @@
       <c r="I34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>201</v>
+      <c r="J34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="14">
+        <v>194</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2"/>
@@ -2989,13 +3000,13 @@
         <v>139</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="M35" s="2"/>
     </row>
@@ -3012,69 +3023,47 @@
         <v>139</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="L36" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" t="s">
-        <v>159</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="6" t="b">
-        <f>EXACT(F37,G37)</f>
-        <v>0</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K37" s="14">
-        <v>1040</v>
-      </c>
-      <c r="L37" s="2" t="s">
+      <c r="J37" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" t="s">
         <v>159</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>128</v>
@@ -3086,23 +3075,23 @@
         <v>143</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H38" s="6" t="b">
         <f>EXACT(F38,G38)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K38" s="14">
-        <v>554</v>
+        <v>1040</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>159</v>
@@ -3115,31 +3104,48 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="6" t="b">
+        <f>EXACT(F39,G39)</f>
+        <v>1</v>
+      </c>
       <c r="I39" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K39" s="14">
         <v>554</v>
       </c>
-      <c r="L39" t="s">
-        <v>222</v>
-      </c>
-      <c r="M39" t="s">
-        <v>222</v>
-      </c>
-      <c r="N39" t="s">
-        <v>223</v>
+      <c r="L39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3155,7 +3161,7 @@
         <v>139</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K40" s="14">
         <v>554</v>
@@ -3163,8 +3169,11 @@
       <c r="L40" t="s">
         <v>222</v>
       </c>
+      <c r="M40" t="s">
+        <v>222</v>
+      </c>
       <c r="N40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3179,17 +3188,17 @@
       <c r="I41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>201</v>
+      <c r="J41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" s="14">
+        <v>554</v>
       </c>
       <c r="L41" t="s">
-        <v>225</v>
-      </c>
-      <c r="M41" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="N41" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3205,16 +3214,16 @@
         <v>139</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="M42" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3230,16 +3239,16 @@
         <v>139</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s">
-        <v>222</v>
-      </c>
-      <c r="N43" t="s">
-        <v>223</v>
+        <v>182</v>
+      </c>
+      <c r="M43" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3257,12 +3266,14 @@
       <c r="J44" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="K44" s="15"/>
+      <c r="K44" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="L44" t="s">
-        <v>226</v>
-      </c>
-      <c r="M44" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+      <c r="N44" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3278,12 +3289,13 @@
         <v>139</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>218</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="K45" s="15"/>
       <c r="L45" t="s">
+        <v>226</v>
+      </c>
+      <c r="M45" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3300,83 +3312,80 @@
         <v>139</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="6" t="b">
-        <f>EXACT(F47,G47)</f>
-        <v>0</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K47">
-        <v>11</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>229</v>
+      <c r="J47" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="6" t="b">
+        <f>EXACT(F48,G48)</f>
+        <v>0</v>
+      </c>
       <c r="I48" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K48">
         <v>11</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3392,16 +3401,16 @@
         <v>139</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K49">
         <v>11</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3417,16 +3426,16 @@
         <v>139</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3442,15 +3451,17 @@
         <v>139</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K51">
         <v>12</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2"/>
@@ -3465,7 +3476,7 @@
         <v>139</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K52">
         <v>12</v>
@@ -3487,14 +3498,14 @@
       <c r="I53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>203</v>
+      <c r="J53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M53" s="2"/>
     </row>
@@ -3511,13 +3522,13 @@
         <v>139</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M54" s="2"/>
     </row>
@@ -3534,17 +3545,15 @@
         <v>139</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K55" s="19" t="s">
         <v>204</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2"/>
@@ -3559,84 +3568,84 @@
         <v>139</v>
       </c>
       <c r="J56" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="K56" s="19" t="s">
+      <c r="K57" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="2" t="s">
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H57" s="6" t="b">
-        <f>EXACT(F57,G57)</f>
+      <c r="H58" s="6" t="b">
+        <f>EXACT(F58,G58)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K57">
-        <v>322</v>
-      </c>
-      <c r="L57" t="s">
-        <v>226</v>
-      </c>
-      <c r="M57" t="s">
-        <v>226</v>
-      </c>
-      <c r="O57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K58">
         <v>322</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>225</v>
+      <c r="L58" t="s">
+        <v>226</v>
+      </c>
+      <c r="M58" t="s">
+        <v>226</v>
+      </c>
+      <c r="O58" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3658,10 +3667,10 @@
         <v>322</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3676,14 +3685,17 @@
       <c r="I60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="L60" t="s">
-        <v>225</v>
+      <c r="J60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K60">
+        <v>322</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3699,98 +3711,77 @@
         <v>142</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="L61" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" s="6" t="b">
-        <f>EXACT(F62,G62)</f>
-        <v>0</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K62">
-        <v>649</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O62" t="s">
-        <v>229</v>
+        <v>142</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="L62" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H63" s="6" t="b">
         <f>EXACT(F63,G63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K63" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="K63">
+        <v>649</v>
+      </c>
       <c r="L63" s="2" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="O63" t="s">
         <v>229</v>
@@ -3804,91 +3795,89 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K64">
+        <v>640</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K64">
-        <v>6</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="6" t="b">
+        <f>EXACT(F65,G65)</f>
+        <v>0</v>
+      </c>
       <c r="I65" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K65">
-        <v>6</v>
-      </c>
-      <c r="L65" t="s">
-        <v>225</v>
-      </c>
-      <c r="M65" t="s">
-        <v>225</v>
+        <v>249</v>
+      </c>
+      <c r="K65" s="20"/>
+      <c r="L65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O65" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="6" t="b">
-        <f>EXACT(F66,G66)</f>
-        <v>1</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K66">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O66" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3904,41 +3893,61 @@
         <v>142</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K67">
-        <v>60</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="L67" t="s">
+        <v>225</v>
+      </c>
+      <c r="M67" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="6" t="b">
+        <f>EXACT(F68,G68)</f>
+        <v>1</v>
+      </c>
       <c r="I68" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K68">
         <v>60</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>225</v>
+        <v>296</v>
+      </c>
+      <c r="O68" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3954,59 +3963,41 @@
         <v>142</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K69">
         <v>60</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="6" t="b">
-        <f>EXACT(F70,G70)</f>
-        <v>1</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K70">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>225</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4019,44 +4010,62 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K71">
+        <v>60</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K71">
-        <v>173</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" s="6" t="b">
+        <f>EXACT(F72,G72)</f>
+        <v>1</v>
+      </c>
       <c r="I72" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K72">
         <v>173</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4072,16 +4081,16 @@
         <v>139</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K73">
         <v>173</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4097,15 +4106,17 @@
         <v>139</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2"/>
@@ -4120,15 +4131,17 @@
         <v>139</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2"/>
@@ -4143,61 +4156,38 @@
         <v>139</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K76">
         <v>5</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H77" s="6" t="b">
-        <f>EXACT(F77,G77)</f>
-        <v>1</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="K77"/>
+        <v>259</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
       <c r="L77" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O77" t="s">
-        <v>229</v>
-      </c>
+      <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2"/>
@@ -4212,38 +4202,61 @@
         <v>139</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K78"/>
+        <v>260</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
       <c r="L78" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>195</v>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H79" s="6" t="b">
+        <f>EXACT(F79,G79)</f>
+        <v>1</v>
+      </c>
       <c r="I79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K79">
-        <v>187</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="K79"/>
       <c r="L79" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O79" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2"/>
@@ -4258,60 +4271,38 @@
         <v>139</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K80">
+      <c r="K81">
         <v>187</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H81" s="6" t="b">
-        <f>EXACT(F81,G81)</f>
-        <v>1</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K81">
-        <v>2035</v>
-      </c>
       <c r="L81" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2"/>
@@ -4323,13 +4314,13 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K82">
-        <v>2035</v>
+        <v>187</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>225</v>
@@ -4337,19 +4328,36 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" s="6" t="b">
+        <f>EXACT(F83,G83)</f>
+        <v>1</v>
+      </c>
       <c r="I83" s="2" t="s">
         <v>137</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K83">
         <v>2035</v>
@@ -4357,7 +4365,12 @@
       <c r="L83" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M83" s="2"/>
+      <c r="M83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2"/>
@@ -4372,7 +4385,7 @@
         <v>137</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K84">
         <v>2035</v>
@@ -4383,49 +4396,27 @@
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H85" s="6" t="b">
-        <f>EXACT(F85,G85)</f>
-        <v>0</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
         <v>137</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K85">
-        <v>451</v>
+        <v>2035</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M85" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2"/>
@@ -4440,10 +4431,10 @@
         <v>137</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K86">
-        <v>450</v>
+        <v>2035</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>225</v>
@@ -4451,28 +4442,48 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H87" s="6" t="b">
+        <f>EXACT(F87,G87)</f>
+        <v>0</v>
+      </c>
       <c r="I87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>270</v>
+      <c r="J87" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="K87">
-        <v>447</v>
-      </c>
-      <c r="L87" t="s">
-        <v>183</v>
-      </c>
-      <c r="M87" t="s">
-        <v>183</v>
+        <v>451</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4487,11 +4498,11 @@
       <c r="I88" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>271</v>
+      <c r="J88" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="K88">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>225</v>
@@ -4511,16 +4522,16 @@
         <v>137</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K89">
-        <v>448</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>195</v>
+        <v>447</v>
+      </c>
+      <c r="L89" t="s">
+        <v>183</v>
+      </c>
+      <c r="M89" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4536,17 +4547,15 @@
         <v>137</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K90">
         <v>448</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>296</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2"/>
@@ -4561,150 +4570,154 @@
         <v>137</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K91">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H92" s="6" t="b">
-        <f>EXACT(F92,G92)</f>
-        <v>1</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K92">
+        <v>448</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K93">
+        <v>450</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H94" s="6" t="b">
+        <f>EXACT(F94,G94)</f>
+        <v>1</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K92">
+      <c r="K94">
         <v>984</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M92" s="2" t="s">
+      <c r="M94" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O92" t="s">
+      <c r="O94" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="2" t="s">
+    <row r="95" spans="1:15">
+      <c r="A95" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H93" s="6" t="b">
-        <f>EXACT(F93,G93)</f>
+      <c r="H95" s="6" t="b">
+        <f>EXACT(F95,G95)</f>
         <v>0</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K93"/>
-      <c r="L93" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="K94"/>
-      <c r="L94" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="2" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>153</v>
+        <v>296</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4720,356 +4733,402 @@
         <v>142</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G97" t="s">
-        <v>137</v>
-      </c>
-      <c r="H97" s="6" t="b">
-        <f>EXACT(F97,G97)</f>
-        <v>1</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K97">
-        <v>318</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K97"/>
       <c r="L97" s="2" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O97" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G99" t="s">
+        <v>137</v>
+      </c>
+      <c r="H99" s="6" t="b">
+        <f>EXACT(F99,G99)</f>
+        <v>1</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="K99">
+        <v>318</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="G102" t="s">
+      <c r="M99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="I100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K100"/>
+      <c r="L100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="G104" t="s">
         <v>303</v>
       </c>
-      <c r="H102">
-        <f>COUNTA(H2:H101)</f>
+      <c r="H104">
+        <f>COUNTA(H2:H103)</f>
         <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" t="s">
-        <v>137</v>
-      </c>
-      <c r="B103">
-        <f>COUNTIF(G:G, A103)</f>
-        <v>7</v>
-      </c>
-      <c r="C103" s="38">
-        <f>B103/$B$108</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D103" t="s">
-        <v>225</v>
-      </c>
-      <c r="E103">
-        <f t="shared" ref="E103:E116" si="0">COUNTIF(M:M, D103)</f>
-        <v>18</v>
-      </c>
-      <c r="F103" s="38">
-        <f>E103/$E$120</f>
-        <v>0.26865671641791045</v>
-      </c>
-      <c r="G103" t="s">
-        <v>304</v>
-      </c>
-      <c r="H103">
-        <f>COUNTIF(H2:H101,TRUE)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104">
-        <f>COUNTIF(G:G, A104)</f>
-        <v>5</v>
-      </c>
-      <c r="C104" s="38">
-        <f t="shared" ref="C104:C107" si="1">B104/$B$108</f>
-        <v>0.2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F104" s="38">
-        <f t="shared" ref="F104:F116" si="2">E104/$E$120</f>
-        <v>2.9850746268656716E-2</v>
-      </c>
-      <c r="G104" t="s">
-        <v>305</v>
-      </c>
-      <c r="H104">
-        <f>H102-H103</f>
-        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B105">
-        <f t="shared" ref="B105:B107" si="3">COUNTIF(G:G, A105)</f>
-        <v>3</v>
+        <f>COUNTIF(G:G, A105)</f>
+        <v>7</v>
       </c>
       <c r="C105" s="38">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>166</v>
+        <f>B105/$B$110</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D105" t="s">
+        <v>225</v>
       </c>
       <c r="E105">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>COUNTIF(M:M, D105)</f>
+        <v>18</v>
       </c>
       <c r="F105" s="38">
-        <f t="shared" si="2"/>
-        <v>4.4776119402985072E-2</v>
+        <f>E105/$E$122</f>
+        <v>0.2608695652173913</v>
       </c>
       <c r="G105" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H105">
-        <f>H103/H102</f>
-        <v>0.64</v>
-      </c>
-      <c r="N105" t="s">
-        <v>230</v>
-      </c>
-      <c r="O105">
-        <f>COUNTIF(O2:O97, "Ja")</f>
-        <v>25</v>
+        <f>COUNTIF(H2:H103,TRUE)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF(G:G, A106)</f>
+        <v>5</v>
       </c>
       <c r="C106" s="38">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>159</v>
+        <f>B106/$B$110</f>
+        <v>0.2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>153</v>
       </c>
       <c r="E106">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNTIF(M:M, D106)</f>
+        <v>4</v>
       </c>
       <c r="F106" s="38">
-        <f t="shared" si="2"/>
-        <v>0.22388059701492538</v>
+        <f>E106/$E$122</f>
+        <v>5.7971014492753624E-2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>305</v>
+      </c>
+      <c r="H106">
+        <f>H104-H105</f>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107">
+        <f>COUNTIF(G:G, A107)</f>
+        <v>3</v>
+      </c>
+      <c r="C107" s="38">
+        <f>B107/$B$110</f>
+        <v>0.12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107">
+        <f>COUNTIF(M:M, D107)</f>
+        <v>3</v>
+      </c>
+      <c r="F107" s="38">
+        <f>E107/$E$122</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>306</v>
+      </c>
+      <c r="H107">
+        <f>H105/H104</f>
+        <v>0.64</v>
+      </c>
+      <c r="N107" t="s">
+        <v>230</v>
+      </c>
+      <c r="O107">
+        <f>COUNTIF(O2:O99, "Ja")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108">
+        <f>COUNTIF(G:G, A108)</f>
+        <v>2</v>
+      </c>
+      <c r="C108" s="38">
+        <f>B108/$B$110</f>
+        <v>0.08</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108">
+        <f>COUNTIF(M:M, D108)</f>
+        <v>15</v>
+      </c>
+      <c r="F108" s="38">
+        <f>E108/$E$122</f>
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
         <v>139</v>
       </c>
-      <c r="B107">
-        <f t="shared" si="3"/>
+      <c r="B109">
+        <f>COUNTIF(G:G, A109)</f>
         <v>8</v>
       </c>
-      <c r="C107" s="38">
-        <f t="shared" si="1"/>
+      <c r="C109" s="38">
+        <f>B109/$B$110</f>
         <v>0.32</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="0"/>
+      <c r="E109">
+        <f>COUNTIF(M:M, D109)</f>
         <v>3</v>
       </c>
-      <c r="F107" s="38">
-        <f t="shared" si="2"/>
-        <v>4.4776119402985072E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="B108">
-        <f>SUM(B103:B107)</f>
+      <c r="F109" s="38">
+        <f>E109/$E$122</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="B110">
+        <f>SUM(B105:B109)</f>
         <v>25</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="0"/>
+      <c r="E110">
+        <f>COUNTIF(M:M, D110)</f>
         <v>1</v>
       </c>
-      <c r="F108" s="38">
-        <f t="shared" si="2"/>
-        <v>1.4925373134328358E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="D109" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F109" s="38">
-        <f t="shared" si="2"/>
-        <v>5.9701492537313432E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="D110" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="F110" s="38">
-        <f t="shared" si="2"/>
-        <v>4.4776119402985072E-2</v>
+        <f>E110/$E$122</f>
+        <v>1.4492753623188406E-2</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="D111" s="2" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="E111">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(M:M, D111)</f>
+        <v>4</v>
+      </c>
+      <c r="F111" s="38">
+        <f>E111/$E$122</f>
+        <v>5.7971014492753624E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="D112" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112">
+        <f>COUNTIF(M:M, D112)</f>
         <v>3</v>
       </c>
-      <c r="F111" s="38">
-        <f t="shared" si="2"/>
-        <v>4.4776119402985072E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="D112" t="s">
-        <v>183</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="F112" s="38">
-        <f t="shared" si="2"/>
-        <v>2.9850746268656716E-2</v>
+        <f>E112/$E$122</f>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="2" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="E113">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(M:M, D113)</f>
         <v>3</v>
       </c>
       <c r="F113" s="38">
-        <f t="shared" si="2"/>
-        <v>4.4776119402985072E-2</v>
+        <f>E113/$E$122</f>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="114" spans="4:6">
-      <c r="D114" s="2" t="s">
-        <v>294</v>
+      <c r="D114" t="s">
+        <v>183</v>
       </c>
       <c r="E114">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(M:M, D114)</f>
         <v>2</v>
       </c>
       <c r="F114" s="38">
-        <f t="shared" si="2"/>
-        <v>2.9850746268656716E-2</v>
+        <f>E114/$E$122</f>
+        <v>2.8985507246376812E-2</v>
       </c>
     </row>
     <row r="115" spans="4:6">
       <c r="D115" s="2" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="E115">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(M:M, D115)</f>
         <v>3</v>
       </c>
       <c r="F115" s="38">
-        <f t="shared" si="2"/>
-        <v>4.4776119402985072E-2</v>
+        <f>E115/$E$122</f>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="D116" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E116">
+        <f>COUNTIF(M:M, D116)</f>
+        <v>2</v>
+      </c>
+      <c r="F116" s="38">
+        <f>E116/$E$122</f>
+        <v>2.8985507246376812E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="D117" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E117">
+        <f>COUNTIF(M:M, D117)</f>
+        <v>3</v>
+      </c>
+      <c r="F117" s="38">
+        <f>E117/$E$122</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="D118" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E116">
-        <f t="shared" si="0"/>
+      <c r="E118">
+        <f>COUNTIF(M:M, D118)</f>
         <v>5</v>
       </c>
-      <c r="F116" s="38">
-        <f t="shared" si="2"/>
-        <v>7.4626865671641784E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6">
-      <c r="E120">
-        <f>SUM(E103:E116)</f>
-        <v>67</v>
+      <c r="F118" s="38">
+        <f>E118/$E$122</f>
+        <v>7.2463768115942032E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6">
+      <c r="E122">
+        <f>SUM(E105:E118)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8760,7 +8819,7 @@
       </c>
       <c r="E22">
         <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,E$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,F$1)</f>
@@ -8768,11 +8827,11 @@
       </c>
       <c r="G22">
         <f>COUNTIFS(Gefiltert!$M:$M,$B22,Gefiltert!$I:$I,G$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8787,7 +8846,7 @@
       </c>
       <c r="E23" s="27">
         <f>E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="27">
         <f>F22</f>
@@ -8795,11 +8854,11 @@
       </c>
       <c r="G23" s="27">
         <f>G22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="31">
         <f>SUM(C23:G23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8912,7 +8971,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
@@ -8920,7 +8979,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8934,7 +8993,7 @@
       </c>
       <c r="E30" s="38">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F30" s="38">
         <f t="shared" si="2"/>
@@ -8942,7 +9001,7 @@
       </c>
       <c r="G30" s="38">
         <f t="shared" si="2"/>
-        <v>0.6428571428571429</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Review.xlsx
+++ b/Review.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\GitHub\AR-Education\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
@@ -12,13 +17,13 @@
     <sheet name="Gruppierung" sheetId="4" r:id="rId3"/>
     <sheet name="Ben&lt;-&gt;Dir" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1035,7 +1040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1446,78 +1451,78 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="139" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="146">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1866,7 +1871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1881,16 +1886,16 @@
       <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="57" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="14"/>
-    <col min="12" max="13" width="39.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="14"/>
+    <col min="12" max="13" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4872,11 +4877,11 @@
         <v>225</v>
       </c>
       <c r="E105">
-        <f>COUNTIF(M:M, D105)</f>
+        <f t="shared" ref="E105:E118" si="0">COUNTIF(M:M, D105)</f>
         <v>18</v>
       </c>
       <c r="F105" s="38">
-        <f>E105/$E$122</f>
+        <f t="shared" ref="F105:F118" si="1">E105/$E$122</f>
         <v>0.2608695652173913</v>
       </c>
       <c r="G105" t="s">
@@ -4903,11 +4908,11 @@
         <v>153</v>
       </c>
       <c r="E106">
-        <f>COUNTIF(M:M, D106)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F106" s="38">
-        <f>E106/$E$122</f>
+        <f t="shared" si="1"/>
         <v>5.7971014492753624E-2</v>
       </c>
       <c r="G106" t="s">
@@ -4934,11 +4939,11 @@
         <v>166</v>
       </c>
       <c r="E107">
-        <f>COUNTIF(M:M, D107)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F107" s="38">
-        <f>E107/$E$122</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="G107" t="s">
@@ -4972,11 +4977,11 @@
         <v>159</v>
       </c>
       <c r="E108">
-        <f>COUNTIF(M:M, D108)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F108" s="38">
-        <f>E108/$E$122</f>
+        <f t="shared" si="1"/>
         <v>0.21739130434782608</v>
       </c>
     </row>
@@ -4996,11 +5001,11 @@
         <v>182</v>
       </c>
       <c r="E109">
-        <f>COUNTIF(M:M, D109)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F109" s="38">
-        <f>E109/$E$122</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -5013,11 +5018,11 @@
         <v>171</v>
       </c>
       <c r="E110">
-        <f>COUNTIF(M:M, D110)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F110" s="38">
-        <f>E110/$E$122</f>
+        <f t="shared" si="1"/>
         <v>1.4492753623188406E-2</v>
       </c>
     </row>
@@ -5026,11 +5031,11 @@
         <v>191</v>
       </c>
       <c r="E111">
-        <f>COUNTIF(M:M, D111)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F111" s="38">
-        <f>E111/$E$122</f>
+        <f t="shared" si="1"/>
         <v>5.7971014492753624E-2</v>
       </c>
     </row>
@@ -5039,11 +5044,11 @@
         <v>174</v>
       </c>
       <c r="E112">
-        <f>COUNTIF(M:M, D112)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F112" s="38">
-        <f>E112/$E$122</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -5052,11 +5057,11 @@
         <v>295</v>
       </c>
       <c r="E113">
-        <f>COUNTIF(M:M, D113)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F113" s="38">
-        <f>E113/$E$122</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -5065,11 +5070,11 @@
         <v>183</v>
       </c>
       <c r="E114">
-        <f>COUNTIF(M:M, D114)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F114" s="38">
-        <f>E114/$E$122</f>
+        <f t="shared" si="1"/>
         <v>2.8985507246376812E-2</v>
       </c>
     </row>
@@ -5078,11 +5083,11 @@
         <v>186</v>
       </c>
       <c r="E115">
-        <f>COUNTIF(M:M, D115)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F115" s="38">
-        <f>E115/$E$122</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -5091,11 +5096,11 @@
         <v>294</v>
       </c>
       <c r="E116">
-        <f>COUNTIF(M:M, D116)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F116" s="38">
-        <f>E116/$E$122</f>
+        <f t="shared" si="1"/>
         <v>2.8985507246376812E-2</v>
       </c>
     </row>
@@ -5104,11 +5109,11 @@
         <v>297</v>
       </c>
       <c r="E117">
-        <f>COUNTIF(M:M, D117)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F117" s="38">
-        <f>E117/$E$122</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -5117,11 +5122,11 @@
         <v>296</v>
       </c>
       <c r="E118">
-        <f>COUNTIF(M:M, D118)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F118" s="38">
-        <f>E118/$E$122</f>
+        <f t="shared" si="1"/>
         <v>7.2463768115942032E-2</v>
       </c>
     </row>
@@ -5151,16 +5156,16 @@
       <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="57" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="14"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="14"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8172,10 +8177,10 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8314,10 +8319,10 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="21" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
